--- a/data/hotels_by_city/Dallas/Dallas_shard_764.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_764.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="596">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1718 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r572297416-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>223853</t>
+  </si>
+  <si>
+    <t>572297416</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Great Value.  Norma greets you upon arrival and Bryan is there to help with anything during your stay.  The rooms are clean, quiet and in a very nice area.  The property is older and can't wait to see the updates they have in process.  Nice place to call "home" after a long day at work.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r569788116-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>569788116</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Great Customer  review</t>
+  </si>
+  <si>
+    <t>I am a Lifetime Platinum with Marriott and stay over 300 day a year in a hotel I found that this hotel is a good stay.  Norma at the front desk is awesome and  went way out of her way to help me with a problem. She solved the problem in about 10 minutes. The Hotel is old but is going through renovations and will be good as new soon. The Hotel looks clean and is kept up well for the age.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r569396482-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>569396482</t>
+  </si>
+  <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No place like home, but Norma and team at TownePlace Suites do a great job making my stay comfortable!  Very reasonable rates and access to the thriving areas of Plano and Frisco offering a wide variety of restaurants and shops.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r568166422-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>568166422</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Great Hospitality</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks and planning to stay here for another week. I love the hospitality here. The rooms are kept clean. The issues if any are resolved as quickly as they can be.Norma and Marcella particularly were like the best of staff members. Helpful. Courteous. Friendly.Hopefully l’ll stay here again in future. Cheers!MoreShow less</t>
+  </si>
+  <si>
+    <t>Marcella W, Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks and planning to stay here for another week. I love the hospitality here. The rooms are kept clean. The issues if any are resolved as quickly as they can be.Norma and Marcella particularly were like the best of staff members. Helpful. Courteous. Friendly.Hopefully l’ll stay here again in future. Cheers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r565458705-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>565458705</t>
+  </si>
+  <si>
+    <t>03/09/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs updates </t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because we’ve been impressed with other Townplace hotels in other cities. However, this hotel is older and needs to be updated. Also, we had our pets with us and there isn’t hardly any grass for them to do their business. My recommendation would be to post a poo bag where it’s ok to take our pets. And definitely needs outdoor lighting in the parking lot. Room was clean but just felt musty. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Karla J, Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded March 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because we’ve been impressed with other Townplace hotels in other cities. However, this hotel is older and needs to be updated. Also, we had our pets with us and there isn’t hardly any grass for them to do their business. My recommendation would be to post a poo bag where it’s ok to take our pets. And definitely needs outdoor lighting in the parking lot. Room was clean but just felt musty. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r562201192-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>562201192</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>Geat staff!</t>
+  </si>
+  <si>
+    <t>Great and really friendly staff, here; always made my day.  The room was large, but sometimes noisy, but it got the job done for business travel.  Easily accessible to major freeways and shopping, as well, including lots of grocery stores.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Karla J, General Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Great and really friendly staff, here; always made my day.  The room was large, but sometimes noisy, but it got the job done for business travel.  Easily accessible to major freeways and shopping, as well, including lots of grocery stores.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r528984349-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>528984349</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Amazing brand - Horrendous managment</t>
+  </si>
+  <si>
+    <t>Odd that as I sign in to leave a review I see a few others with the same feedback. Marriot is a fantastic brand, their service level is usually impeccable which is why as a Platinum Premier member I have over 1000 nights at their hotels.
+I booked 4 rooms for a large party at this location. I took it upon myself to have someone stop by the hotel the morning of the check ins to ensure my team was going to be accommodated and that all the logistics were handled. I left a room list, credit card authorization and even prechecked into the rooms using my mobile app.
+I had a flight back into Dallas which landed at midnight, and I had the meeting at 8am the next day. When I landed, messages flooded my phone that the hotel "did not have rooms" and that my team "had to find alternative rooming". How did this happen when I spoke to the GM personally that morning and the rooms were even PREPAID?
+After an evening of phone calls trying to track down my poor associates (who were at 2 other properties) I went to bed at 3am. The following morning after sincere apologies by me, I found out their ID was not even checked at arrival. 2 rooms were filled by ONE person (they were two bedroom suites) and one of the rooms was filled by the other 2. Essentially,...Odd that as I sign in to leave a review I see a few others with the same feedback. Marriot is a fantastic brand, their service level is usually impeccable which is why as a Platinum Premier member I have over 1000 nights at their hotels.I booked 4 rooms for a large party at this location. I took it upon myself to have someone stop by the hotel the morning of the check ins to ensure my team was going to be accommodated and that all the logistics were handled. I left a room list, credit card authorization and even prechecked into the rooms using my mobile app.I had a flight back into Dallas which landed at midnight, and I had the meeting at 8am the next day. When I landed, messages flooded my phone that the hotel "did not have rooms" and that my team "had to find alternative rooming". How did this happen when I spoke to the GM personally that morning and the rooms were even PREPAID?After an evening of phone calls trying to track down my poor associates (who were at 2 other properties) I went to bed at 3am. The following morning after sincere apologies by me, I found out their ID was not even checked at arrival. 2 rooms were filled by ONE person (they were two bedroom suites) and one of the rooms was filled by the other 2. Essentially, 3 of my associates were walked for NO REASON and the 4th room was occupied by someone I do not even know..At this point I am not upset by the mistake but the extreme sense of indifference and lack of professionalism by this management team. Even after 4 different calls, this GM fails to communicate with me. You have been warned, if an issue arises, don't expect the GM or anyone else to support youMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Karla J, General Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Odd that as I sign in to leave a review I see a few others with the same feedback. Marriot is a fantastic brand, their service level is usually impeccable which is why as a Platinum Premier member I have over 1000 nights at their hotels.
+I booked 4 rooms for a large party at this location. I took it upon myself to have someone stop by the hotel the morning of the check ins to ensure my team was going to be accommodated and that all the logistics were handled. I left a room list, credit card authorization and even prechecked into the rooms using my mobile app.
+I had a flight back into Dallas which landed at midnight, and I had the meeting at 8am the next day. When I landed, messages flooded my phone that the hotel "did not have rooms" and that my team "had to find alternative rooming". How did this happen when I spoke to the GM personally that morning and the rooms were even PREPAID?
+After an evening of phone calls trying to track down my poor associates (who were at 2 other properties) I went to bed at 3am. The following morning after sincere apologies by me, I found out their ID was not even checked at arrival. 2 rooms were filled by ONE person (they were two bedroom suites) and one of the rooms was filled by the other 2. Essentially,...Odd that as I sign in to leave a review I see a few others with the same feedback. Marriot is a fantastic brand, their service level is usually impeccable which is why as a Platinum Premier member I have over 1000 nights at their hotels.I booked 4 rooms for a large party at this location. I took it upon myself to have someone stop by the hotel the morning of the check ins to ensure my team was going to be accommodated and that all the logistics were handled. I left a room list, credit card authorization and even prechecked into the rooms using my mobile app.I had a flight back into Dallas which landed at midnight, and I had the meeting at 8am the next day. When I landed, messages flooded my phone that the hotel "did not have rooms" and that my team "had to find alternative rooming". How did this happen when I spoke to the GM personally that morning and the rooms were even PREPAID?After an evening of phone calls trying to track down my poor associates (who were at 2 other properties) I went to bed at 3am. The following morning after sincere apologies by me, I found out their ID was not even checked at arrival. 2 rooms were filled by ONE person (they were two bedroom suites) and one of the rooms was filled by the other 2. Essentially, 3 of my associates were walked for NO REASON and the 4th room was occupied by someone I do not even know..At this point I am not upset by the mistake but the extreme sense of indifference and lack of professionalism by this management team. Even after 4 different calls, this GM fails to communicate with me. You have been warned, if an issue arises, don't expect the GM or anyone else to support youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r526417205-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>526417205</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel with kitchen</t>
+  </si>
+  <si>
+    <t>I went to Plano for business, and this hotel was the closest within our allowed price range.  I was there for a few days, so I like the suite setting.  This room had a king bed, a sofa bed, a table with 1 chair (I assume you could ask for another), and a full kitchen.  The kitchen had a small 4 burner range, small (but not compact) fridge, microwave, dishwasher, toaster, coffee pot, and pots &amp; pans, plates, utensils, etc.  I did not cook but the kitchen is a nice convenience.  The coil burners were all askew.  The room was clean and the staff was friendly.  The location was convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>I went to Plano for business, and this hotel was the closest within our allowed price range.  I was there for a few days, so I like the suite setting.  This room had a king bed, a sofa bed, a table with 1 chair (I assume you could ask for another), and a full kitchen.  The kitchen had a small 4 burner range, small (but not compact) fridge, microwave, dishwasher, toaster, coffee pot, and pots &amp; pans, plates, utensils, etc.  I did not cook but the kitchen is a nice convenience.  The coil burners were all askew.  The room was clean and the staff was friendly.  The location was convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r524968344-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>524968344</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Odd - On Several Levels</t>
+  </si>
+  <si>
+    <t>Positives - room was fine, actually one of the best "suite" hotels I have been in. Small but certainly adequate. Full kitchen items, so easy to get food in and prepare. There is a 7-11 literally around the corner. Not well stocked, but there. Nothing else in the immediate area with food. In the world of UBER, you are pretty isolated here. 
+Odd parts. Basically located next door to a Residence Inn, another "suite" type facility and also Marriott. Guess Towneplace less expensive, but odd co-location. Tiny breakfast room. I really did not know they offered breakfast, not mentioned when I checked in, but could not even get in the room when I passed it in the morning. Filled with only 5 people.  Lobby area also odd. No clear "front door" - there are two ways into "lobby". Lobby also appears to have some items for sale, but shelves were basically bare. Not very inviting when your cooler has something like two bottles of soda for sale. Also lobby was very dark and pretty "uninviting". Check-in person was fine, no greeting, but that is now standard operating procedure in the inhospitable "hospitality" industry.  Not that far from DFW, about 20 minutes or so. If you have to be in this area - and it is an area literally booming with Dr Pepper and Toyota - this is a good, economical location with a fine sleeping room. Someone could just make...Positives - room was fine, actually one of the best "suite" hotels I have been in. Small but certainly adequate. Full kitchen items, so easy to get food in and prepare. There is a 7-11 literally around the corner. Not well stocked, but there. Nothing else in the immediate area with food. In the world of UBER, you are pretty isolated here. Odd parts. Basically located next door to a Residence Inn, another "suite" type facility and also Marriott. Guess Towneplace less expensive, but odd co-location. Tiny breakfast room. I really did not know they offered breakfast, not mentioned when I checked in, but could not even get in the room when I passed it in the morning. Filled with only 5 people.  Lobby area also odd. No clear "front door" - there are two ways into "lobby". Lobby also appears to have some items for sale, but shelves were basically bare. Not very inviting when your cooler has something like two bottles of soda for sale. Also lobby was very dark and pretty "uninviting". Check-in person was fine, no greeting, but that is now standard operating procedure in the inhospitable "hospitality" industry.  Not that far from DFW, about 20 minutes or so. If you have to be in this area - and it is an area literally booming with Dr Pepper and Toyota - this is a good, economical location with a fine sleeping room. Someone could just make this about two notches higher with minimal effort.MoreShow less</t>
+  </si>
+  <si>
+    <t>Positives - room was fine, actually one of the best "suite" hotels I have been in. Small but certainly adequate. Full kitchen items, so easy to get food in and prepare. There is a 7-11 literally around the corner. Not well stocked, but there. Nothing else in the immediate area with food. In the world of UBER, you are pretty isolated here. 
+Odd parts. Basically located next door to a Residence Inn, another "suite" type facility and also Marriott. Guess Towneplace less expensive, but odd co-location. Tiny breakfast room. I really did not know they offered breakfast, not mentioned when I checked in, but could not even get in the room when I passed it in the morning. Filled with only 5 people.  Lobby area also odd. No clear "front door" - there are two ways into "lobby". Lobby also appears to have some items for sale, but shelves were basically bare. Not very inviting when your cooler has something like two bottles of soda for sale. Also lobby was very dark and pretty "uninviting". Check-in person was fine, no greeting, but that is now standard operating procedure in the inhospitable "hospitality" industry.  Not that far from DFW, about 20 minutes or so. If you have to be in this area - and it is an area literally booming with Dr Pepper and Toyota - this is a good, economical location with a fine sleeping room. Someone could just make...Positives - room was fine, actually one of the best "suite" hotels I have been in. Small but certainly adequate. Full kitchen items, so easy to get food in and prepare. There is a 7-11 literally around the corner. Not well stocked, but there. Nothing else in the immediate area with food. In the world of UBER, you are pretty isolated here. Odd parts. Basically located next door to a Residence Inn, another "suite" type facility and also Marriott. Guess Towneplace less expensive, but odd co-location. Tiny breakfast room. I really did not know they offered breakfast, not mentioned when I checked in, but could not even get in the room when I passed it in the morning. Filled with only 5 people.  Lobby area also odd. No clear "front door" - there are two ways into "lobby". Lobby also appears to have some items for sale, but shelves were basically bare. Not very inviting when your cooler has something like two bottles of soda for sale. Also lobby was very dark and pretty "uninviting". Check-in person was fine, no greeting, but that is now standard operating procedure in the inhospitable "hospitality" industry.  Not that far from DFW, about 20 minutes or so. If you have to be in this area - and it is an area literally booming with Dr Pepper and Toyota - this is a good, economical location with a fine sleeping room. Someone could just make this about two notches higher with minimal effort.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r519702309-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>519702309</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>Wonderful staff, well-equipped rooms</t>
+  </si>
+  <si>
+    <t>During Hurricane Harvey my family and I needed to stay a few nights in Dallas to avoid returning to Houston. We made a reservation for two nights but ended up staying four. During this extended stay the staff made this unexpected stay a very pleasant one. The manager at the front desk always greeted us with a smile and was very forward-thinking in helping us extend our stay beyond our plans so that we didn't get stuck without a room. Although we planned to check out and didn't three days in a row, the staff was helpful in cleaning our room when requested. The front desk attendant even came to bring towels and extra soap one day after the regular housekeeping staff had left. The women who prepped and managed the breakfast room were friendly and worked very hard to keep the area stocked even when family after family descended upon the area. 
+The eating area is very, very small (only four tables) and congested but the breakfast selection is very good, despite the small space. 
+There were two washing machines and two dryers provided for use ($1 wash, $1.25 dry). Detergent and softener were available to purchase. The machines needed some repair. The washing machines washed everything in hot and one dryer did not dry completely. When this was mentioned to the staff, they were quick to refund my money.
+The two bedroom suite worked very well for our...During Hurricane Harvey my family and I needed to stay a few nights in Dallas to avoid returning to Houston. We made a reservation for two nights but ended up staying four. During this extended stay the staff made this unexpected stay a very pleasant one. The manager at the front desk always greeted us with a smile and was very forward-thinking in helping us extend our stay beyond our plans so that we didn't get stuck without a room. Although we planned to check out and didn't three days in a row, the staff was helpful in cleaning our room when requested. The front desk attendant even came to bring towels and extra soap one day after the regular housekeeping staff had left. The women who prepped and managed the breakfast room were friendly and worked very hard to keep the area stocked even when family after family descended upon the area. The eating area is very, very small (only four tables) and congested but the breakfast selection is very good, despite the small space. There were two washing machines and two dryers provided for use ($1 wash, $1.25 dry). Detergent and softener were available to purchase. The machines needed some repair. The washing machines washed everything in hot and one dryer did not dry completely. When this was mentioned to the staff, they were quick to refund my money.The two bedroom suite worked very well for our family as our little children did not mind the extremely lumpy fold-out sofa bed. I wouldn't recommend it for older children or adults. However, the beds in the bedrooms were comfortable and the kitchen was surprisingly well-stocked with kitchen cookware, cutlery, serving ware and even salt and pepper. The suite, including the kitchen, was clean.The division of the toilet and shower from the vanity in the bathroom allowed all six of us to use the facilities without too much waiting.Overall, this hotel provides exactly what it advertises and the staff makes it all even more pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>During Hurricane Harvey my family and I needed to stay a few nights in Dallas to avoid returning to Houston. We made a reservation for two nights but ended up staying four. During this extended stay the staff made this unexpected stay a very pleasant one. The manager at the front desk always greeted us with a smile and was very forward-thinking in helping us extend our stay beyond our plans so that we didn't get stuck without a room. Although we planned to check out and didn't three days in a row, the staff was helpful in cleaning our room when requested. The front desk attendant even came to bring towels and extra soap one day after the regular housekeeping staff had left. The women who prepped and managed the breakfast room were friendly and worked very hard to keep the area stocked even when family after family descended upon the area. 
+The eating area is very, very small (only four tables) and congested but the breakfast selection is very good, despite the small space. 
+There were two washing machines and two dryers provided for use ($1 wash, $1.25 dry). Detergent and softener were available to purchase. The machines needed some repair. The washing machines washed everything in hot and one dryer did not dry completely. When this was mentioned to the staff, they were quick to refund my money.
+The two bedroom suite worked very well for our...During Hurricane Harvey my family and I needed to stay a few nights in Dallas to avoid returning to Houston. We made a reservation for two nights but ended up staying four. During this extended stay the staff made this unexpected stay a very pleasant one. The manager at the front desk always greeted us with a smile and was very forward-thinking in helping us extend our stay beyond our plans so that we didn't get stuck without a room. Although we planned to check out and didn't three days in a row, the staff was helpful in cleaning our room when requested. The front desk attendant even came to bring towels and extra soap one day after the regular housekeeping staff had left. The women who prepped and managed the breakfast room were friendly and worked very hard to keep the area stocked even when family after family descended upon the area. The eating area is very, very small (only four tables) and congested but the breakfast selection is very good, despite the small space. There were two washing machines and two dryers provided for use ($1 wash, $1.25 dry). Detergent and softener were available to purchase. The machines needed some repair. The washing machines washed everything in hot and one dryer did not dry completely. When this was mentioned to the staff, they were quick to refund my money.The two bedroom suite worked very well for our family as our little children did not mind the extremely lumpy fold-out sofa bed. I wouldn't recommend it for older children or adults. However, the beds in the bedrooms were comfortable and the kitchen was surprisingly well-stocked with kitchen cookware, cutlery, serving ware and even salt and pepper. The suite, including the kitchen, was clean.The division of the toilet and shower from the vanity in the bathroom allowed all six of us to use the facilities without too much waiting.Overall, this hotel provides exactly what it advertises and the staff makes it all even more pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r513840940-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>513840940</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Meets expectations of the TownePlace Suite brand!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was my first visit to the Plano area and this hotel was in a perfect  location to a number of restaurants. There were petty within walking distance. Location to Toyota is great The hotel staff were great and fitness area was good just like others in TownePlace Suites. I would recommend based on my stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r505277158-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>505277158</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>In Plano For USSSAoftball Tourney</t>
+  </si>
+  <si>
+    <t>Hotel personnel were more than accommodating.  Provided everything that was asked for.  Hotel was clean and well maintained.  Seemed to have been a renovated apartment complex bldg. as the gps listed the address as Waterwood Apartments.  The sofa that made into a bed needed to be rep[laced as it was not any too comfortable.  The complimentary breakfast was nice, waffles and pancake or croissant, sausage and egg with chees, coffee, a variety of juices, cereals, milk, two different type of yogurt, bagels, and muffins.  Nice job.  Downside was an icemaker that had to service too large of an area and was either low or making ice most of the time there.  That could have been that a large number of guests were there for the tourney and were filling their coolers for the game...myself included.  Our a/c unit was an older Amana, but worked great.  Outside was between 95 and 100 degrees and the room stayed around 70.  No complaints.  Again the staff was really nice and efficient.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Hotel personnel were more than accommodating.  Provided everything that was asked for.  Hotel was clean and well maintained.  Seemed to have been a renovated apartment complex bldg. as the gps listed the address as Waterwood Apartments.  The sofa that made into a bed needed to be rep[laced as it was not any too comfortable.  The complimentary breakfast was nice, waffles and pancake or croissant, sausage and egg with chees, coffee, a variety of juices, cereals, milk, two different type of yogurt, bagels, and muffins.  Nice job.  Downside was an icemaker that had to service too large of an area and was either low or making ice most of the time there.  That could have been that a large number of guests were there for the tourney and were filling their coolers for the game...myself included.  Our a/c unit was an older Amana, but worked great.  Outside was between 95 and 100 degrees and the room stayed around 70.  No complaints.  Again the staff was really nice and efficient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r494477943-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>494477943</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Absolutely filthy, no T.V., no phone, fruit flies, disgusting place to stay!</t>
+  </si>
+  <si>
+    <t>I don’t have a lot of time but I want to warn anyone thinking of using this hotel.  Make it your LAST resort.  I mean if Motel 6 is full, maybe stay here.  If you can’t find a park bench.  The floors are filthy, sticky, in the room and hallways. The sofa in the room is so nasty I wouldn’t even place my luggage on it.  It’s old, stained with God only knows what, and the arms are threadbare.  There is a fruit fly infestation (killed two in the room to get a picture) in the room and the hallway.  The television doesn’t work as it will not power on.  Don’t try calling the front desk because the one telephone in the room is broken and the cord will not remain attached. Even holding it in place like you’d do in a third world hotel does not work.  Hey, I’m as thrifty as the next guy but this is just plain ridiculous.  I’ve stayed in Marriott hotels for more than 25 years but will never use this hotel again. They obviously do not exercise much oversight on the ‘franchise’ owners.  Should have used a Hilton property.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Jerron N, General Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>I don’t have a lot of time but I want to warn anyone thinking of using this hotel.  Make it your LAST resort.  I mean if Motel 6 is full, maybe stay here.  If you can’t find a park bench.  The floors are filthy, sticky, in the room and hallways. The sofa in the room is so nasty I wouldn’t even place my luggage on it.  It’s old, stained with God only knows what, and the arms are threadbare.  There is a fruit fly infestation (killed two in the room to get a picture) in the room and the hallway.  The television doesn’t work as it will not power on.  Don’t try calling the front desk because the one telephone in the room is broken and the cord will not remain attached. Even holding it in place like you’d do in a third world hotel does not work.  Hey, I’m as thrifty as the next guy but this is just plain ridiculous.  I’ve stayed in Marriott hotels for more than 25 years but will never use this hotel again. They obviously do not exercise much oversight on the ‘franchise’ owners.  Should have used a Hilton property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r491351322-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>491351322</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Good for the price paid</t>
+  </si>
+  <si>
+    <t>I requested 2 rooms.  Surprisingly one of the rooms was "stinky" and reek of cigarette.I asked the front desk for a change of room and it was granted but in a different building,  So my children had to stay in one building different from mine.  Although i have no problem with the locations of both rooms, i was very disappointed that the hotel in general was not as clean as other locations i have stayed before.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r484803282-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>484803282</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>No complaints for what it is...</t>
+  </si>
+  <si>
+    <t>This is definitely the low-rung of Marriott's brand, but hey, it was about 30-percent cheaper than the next lowest in Plano when I stayed here for one night and wanted a break from overpriced "nap and a shower". If you compare it to the Marriott at Legacy, it was probably 70-percent cheaper. Is it functional? Absolutely. Nasty? No. Elegant? No. Safe? I thought so. It's right next to a Residence Inn and a much better price for pretty much the same thing. Breakfast was not as good. So for the $40 bucks you save, go splurge at I-Hop. Here is probably one place where I'd say you actually get a little more than you pay for. I had no complaints (and I'm picky!)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This is definitely the low-rung of Marriott's brand, but hey, it was about 30-percent cheaper than the next lowest in Plano when I stayed here for one night and wanted a break from overpriced "nap and a shower". If you compare it to the Marriott at Legacy, it was probably 70-percent cheaper. Is it functional? Absolutely. Nasty? No. Elegant? No. Safe? I thought so. It's right next to a Residence Inn and a much better price for pretty much the same thing. Breakfast was not as good. So for the $40 bucks you save, go splurge at I-Hop. Here is probably one place where I'd say you actually get a little more than you pay for. I had no complaints (and I'm picky!)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r473951334-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>473951334</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Try one of the other extended stays in the area</t>
+  </si>
+  <si>
+    <t>Have stayed at other TPS locations, but this was pretty bad...room had a leaky/running toilet; a disconnected outlet that had a cover plate with exposed metal flanges next to a light switch, causing a couple of scrapes; security doors that were left wide open; a tiny fitness area; and a tiny breakfast area. Not recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jerron N, General Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Have stayed at other TPS locations, but this was pretty bad...room had a leaky/running toilet; a disconnected outlet that had a cover plate with exposed metal flanges next to a light switch, causing a couple of scrapes; security doors that were left wide open; a tiny fitness area; and a tiny breakfast area. Not recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r468420585-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>468420585</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Not so sweet</t>
+  </si>
+  <si>
+    <t>I stay in Plano often and I choose this hotel because it was close to my work and it offered a continental breakfast. My first impression came from the musty stained elevator. I was a bit wary. When I got to my room, the key card wouldn't work. After my second trip down, the irritated desk clerk walked upstairs with me to assist. My room was ok. Seemed pleasant enough. The round retro thermostat did show the age of the room. The air quality in the room wasn't good. I am currently suffering from a sinus infection due to it. The continental breakfast...well I've stayed at many hotels and usually there are some hot elements. Maybe eggs and sausage. Here? Nope. You get cereal, bread and frozen items you can nuke in the microwave. Overall it was a big disappointment. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>I stay in Plano often and I choose this hotel because it was close to my work and it offered a continental breakfast. My first impression came from the musty stained elevator. I was a bit wary. When I got to my room, the key card wouldn't work. After my second trip down, the irritated desk clerk walked upstairs with me to assist. My room was ok. Seemed pleasant enough. The round retro thermostat did show the age of the room. The air quality in the room wasn't good. I am currently suffering from a sinus infection due to it. The continental breakfast...well I've stayed at many hotels and usually there are some hot elements. Maybe eggs and sausage. Here? Nope. You get cereal, bread and frozen items you can nuke in the microwave. Overall it was a big disappointment. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r462566442-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>462566442</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Had a good stay</t>
+  </si>
+  <si>
+    <t>Stayed few nights; unlike other critical reviews, our stay was pleasant. Situated in a quiet area with lots of parking. Room was tidy and clean, housekeeping was prompt. Comfortable bed, kitchenette with all appliances and internet was pretty good. Nothing great about the breakfast - similar to offerings from a typical two star hotel. Overall, good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Jerron N, General Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Stayed few nights; unlike other critical reviews, our stay was pleasant. Situated in a quiet area with lots of parking. Room was tidy and clean, housekeeping was prompt. Comfortable bed, kitchenette with all appliances and internet was pretty good. Nothing great about the breakfast - similar to offerings from a typical two star hotel. Overall, good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r452232791-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>452232791</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>Old Property, Needs Improvement</t>
+  </si>
+  <si>
+    <t>This property is definitely not appropriate for the Marriott brand.  The lobby and exterior were typical, but the rooms were very outdated.  The furniture had stains on them and the carpet was old and ripped.  The room was clean, so I was not uncomfortable being in my room, but it is not what I have come to expect from Marriott.  My co-workers were equally (or a little more) displeased with the condition.  The staff was very friendly and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Sherri R, Director of Sales at TownePlace Suites Dallas Plano, responded to this reviewResponded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>This property is definitely not appropriate for the Marriott brand.  The lobby and exterior were typical, but the rooms were very outdated.  The furniture had stains on them and the carpet was old and ripped.  The room was clean, so I was not uncomfortable being in my room, but it is not what I have come to expect from Marriott.  My co-workers were equally (or a little more) displeased with the condition.  The staff was very friendly and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r447022101-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>447022101</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>Awful place to stay!! DON'T GO HERE!</t>
+  </si>
+  <si>
+    <t>I've stayed at dozens of different hotels this year. While Towneplace Suites is not my favorite option, I have stayed at a few this year that were really nice. This place should lose the Townplace suites name! I wish Marriott would revoke the name privileges if a place has terrible management like this. I don't want to ever stay at a place like this again just because I happen to use Marriotts. So this place: -Smokers everywhere. Even employees smoking by the doors, letting smoke in. Disgusting. -Spots where carpet is missing from the floor. -No platinum level arrival snack/drink (no big deal really)-Potent natural gas smell in the hallway (Maybe I should have called city inspectors?)-First room had terrible smell. Not a moldy musky smell, but I can't describe it.-Second room in other building was not fresh by any means but I just dealt with it.-Opened up hand towel to find old blood stain (could be mud or poop or something, who knows)-Key cards stopped working for no reason.-Everything feels disgusting in this hotel. While there is nothing hot on the breakfast, it wasn't terrible either, so pretty neutral. I purposely didn't check out any amenities (such as pool) in this place because I didn't trust anything.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Sherri R, Director of Sales at TownePlace Suites Dallas Plano, responded to this reviewResponded December 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2016</t>
+  </si>
+  <si>
+    <t>I've stayed at dozens of different hotels this year. While Towneplace Suites is not my favorite option, I have stayed at a few this year that were really nice. This place should lose the Townplace suites name! I wish Marriott would revoke the name privileges if a place has terrible management like this. I don't want to ever stay at a place like this again just because I happen to use Marriotts. So this place: -Smokers everywhere. Even employees smoking by the doors, letting smoke in. Disgusting. -Spots where carpet is missing from the floor. -No platinum level arrival snack/drink (no big deal really)-Potent natural gas smell in the hallway (Maybe I should have called city inspectors?)-First room had terrible smell. Not a moldy musky smell, but I can't describe it.-Second room in other building was not fresh by any means but I just dealt with it.-Opened up hand towel to find old blood stain (could be mud or poop or something, who knows)-Key cards stopped working for no reason.-Everything feels disgusting in this hotel. While there is nothing hot on the breakfast, it wasn't terrible either, so pretty neutral. I purposely didn't check out any amenities (such as pool) in this place because I didn't trust anything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r437606664-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>437606664</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Wasn't my choice</t>
+  </si>
+  <si>
+    <t>We had to stay here due to tournament lodging. Normally i love Marriott hotels, but this was not a place i ever plan to stay at again. We had two bedrooms and a living room. But even that did not make up for the quality. It is very outdated. Couch is worn and dirty. I placed a towel on it and sat on the towel. I told the family to keep their socks on. One of our bedrooms was missing a TV.  With not wanting to sit on the couch in the living room, it was quite an inconvenience. Thank goodness we had our laptop. Breakfast is a continental breakfast. With this being an extended stay hotel, i would think it would've been a hot breakfast. Front desk guy in the evening was nice, he was probably the only reason i didn't give it one star. If our team ever book here again, i will go against the team and book elsewhere. I see someone from the hotel comes on and apologizes from the hotel on other reviews. To them, don't even bother....MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Sherri R, Director of Sales at TownePlace Suites Dallas Plano, responded to this reviewResponded November 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2016</t>
+  </si>
+  <si>
+    <t>We had to stay here due to tournament lodging. Normally i love Marriott hotels, but this was not a place i ever plan to stay at again. We had two bedrooms and a living room. But even that did not make up for the quality. It is very outdated. Couch is worn and dirty. I placed a towel on it and sat on the towel. I told the family to keep their socks on. One of our bedrooms was missing a TV.  With not wanting to sit on the couch in the living room, it was quite an inconvenience. Thank goodness we had our laptop. Breakfast is a continental breakfast. With this being an extended stay hotel, i would think it would've been a hot breakfast. Front desk guy in the evening was nice, he was probably the only reason i didn't give it one star. If our team ever book here again, i will go against the team and book elsewhere. I see someone from the hotel comes on and apologizes from the hotel on other reviews. To them, don't even bother....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r416412189-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>416412189</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>Comfortable place in a quiet neighborhood</t>
+  </si>
+  <si>
+    <t>I stayed for a night and had a good night's sleep. The room is large and accommodating. There is a decent sized kitchenette with a full sized cooking range, all essentials including utensils and crockery. A coffee maker and microwave complete the picture. The bathroom was decently sized and had all the usual towels, soaps, etc. On the whole, I had an enjoyable stay. The 2 beers given to me, on the house, rounded off the welcoming reception when I checked in. I wish I could tip the gentleman who gave me the beers. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded September 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2016</t>
+  </si>
+  <si>
+    <t>I stayed for a night and had a good night's sleep. The room is large and accommodating. There is a decent sized kitchenette with a full sized cooking range, all essentials including utensils and crockery. A coffee maker and microwave complete the picture. The bathroom was decently sized and had all the usual towels, soaps, etc. On the whole, I had an enjoyable stay. The 2 beers given to me, on the house, rounded off the welcoming reception when I checked in. I wish I could tip the gentleman who gave me the beers. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r411036060-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>411036060</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>Worst Marriott stay EVER from a Platinum Member- not even safe hotel</t>
+  </si>
+  <si>
+    <t>I was at this hotel for 2 weeks with my family (including dog). The room condition was poor. Stove broken, Had to call maint. 3 time to get the shower drain to work, and it smelt like cat pee. But the only other hotel in town that would take a dog was booked up so we stuck it out.  That was just the first week. the second week it got real bad. The people above us started parting at about 1-4AM every night where it sounded like the celling was going to come down. I called front desk 4 times and nothing changed. Then the car brake-ins started. On day 2 of the break-ins my car gets the lock tore out of it 4 feet from my window. Good thing I woke up to scare the guy off because there is no security to help, even though this was the second day of this happening there.  Then the room floods....no, I'm not kidding. 1/4" of standing water in cat pee ridden carpet. The manager offers to downgrade my room size for same cost or to fix it immediately. Of course I say fix it immediately but 3 days later I am still standing in water with a smell so bad we only retuned to the hotel to sleep.  And yes. I purchase 3 Glade plugins that did not have a fighting chance on that smell.  So I go to see...I was at this hotel for 2 weeks with my family (including dog). The room condition was poor. Stove broken, Had to call maint. 3 time to get the shower drain to work, and it smelt like cat pee. But the only other hotel in town that would take a dog was booked up so we stuck it out.  That was just the first week. the second week it got real bad. The people above us started parting at about 1-4AM every night where it sounded like the celling was going to come down. I called front desk 4 times and nothing changed. Then the car brake-ins started. On day 2 of the break-ins my car gets the lock tore out of it 4 feet from my window. Good thing I woke up to scare the guy off because there is no security to help, even though this was the second day of this happening there.  Then the room floods....no, I'm not kidding. 1/4" of standing water in cat pee ridden carpet. The manager offers to downgrade my room size for same cost or to fix it immediately. Of course I say fix it immediately but 3 days later I am still standing in water with a smell so bad we only retuned to the hotel to sleep.  And yes. I purchase 3 Glade plugins that did not have a fighting chance on that smell.  So I go to see the AGM to fix this. "She is not her until 11PM" so I stay up and come back at 11:45PM and "She is not here yet". Excuse after excuse no GM or AGM or Owner will talk to me. I left 10 messages at the front desk now, 1 Marriott case opened and 2 emails. With the 1 reply to the Marriott case they offered me a few points.......or a refund for 1 night stay. I spent more time standing it stagnate water/cat pee in my room than that so I took no points or refund!   I decided to tell all of you instead!PS This was my first time I have ever complained about a Marriott room in over 10 years of traveling for work.MoreShow less</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded September 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2016</t>
+  </si>
+  <si>
+    <t>I was at this hotel for 2 weeks with my family (including dog). The room condition was poor. Stove broken, Had to call maint. 3 time to get the shower drain to work, and it smelt like cat pee. But the only other hotel in town that would take a dog was booked up so we stuck it out.  That was just the first week. the second week it got real bad. The people above us started parting at about 1-4AM every night where it sounded like the celling was going to come down. I called front desk 4 times and nothing changed. Then the car brake-ins started. On day 2 of the break-ins my car gets the lock tore out of it 4 feet from my window. Good thing I woke up to scare the guy off because there is no security to help, even though this was the second day of this happening there.  Then the room floods....no, I'm not kidding. 1/4" of standing water in cat pee ridden carpet. The manager offers to downgrade my room size for same cost or to fix it immediately. Of course I say fix it immediately but 3 days later I am still standing in water with a smell so bad we only retuned to the hotel to sleep.  And yes. I purchase 3 Glade plugins that did not have a fighting chance on that smell.  So I go to see...I was at this hotel for 2 weeks with my family (including dog). The room condition was poor. Stove broken, Had to call maint. 3 time to get the shower drain to work, and it smelt like cat pee. But the only other hotel in town that would take a dog was booked up so we stuck it out.  That was just the first week. the second week it got real bad. The people above us started parting at about 1-4AM every night where it sounded like the celling was going to come down. I called front desk 4 times and nothing changed. Then the car brake-ins started. On day 2 of the break-ins my car gets the lock tore out of it 4 feet from my window. Good thing I woke up to scare the guy off because there is no security to help, even though this was the second day of this happening there.  Then the room floods....no, I'm not kidding. 1/4" of standing water in cat pee ridden carpet. The manager offers to downgrade my room size for same cost or to fix it immediately. Of course I say fix it immediately but 3 days later I am still standing in water with a smell so bad we only retuned to the hotel to sleep.  And yes. I purchase 3 Glade plugins that did not have a fighting chance on that smell.  So I go to see the AGM to fix this. "She is not her until 11PM" so I stay up and come back at 11:45PM and "She is not here yet". Excuse after excuse no GM or AGM or Owner will talk to me. I left 10 messages at the front desk now, 1 Marriott case opened and 2 emails. With the 1 reply to the Marriott case they offered me a few points.......or a refund for 1 night stay. I spent more time standing it stagnate water/cat pee in my room than that so I took no points or refund!   I decided to tell all of you instead!PS This was my first time I have ever complained about a Marriott room in over 10 years of traveling for work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r407113555-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>407113555</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>Flea Infested</t>
+  </si>
+  <si>
+    <t>Our room was FILLED with fleas. It was a flea infestation. They were EVERYWHERE! Absolutely disgusting. The place is also extremely dated. Worst hotel experience of my entire life. You couldn't pay me stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Our room was FILLED with fleas. It was a flea infestation. They were EVERYWHERE! Absolutely disgusting. The place is also extremely dated. Worst hotel experience of my entire life. You couldn't pay me stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r381368341-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>381368341</t>
+  </si>
+  <si>
+    <t>06/10/2016</t>
+  </si>
+  <si>
+    <t>Great family accommodations</t>
+  </si>
+  <si>
+    <t>The staff was great; especially the operations manager. She really made me feel valued and important. The breakfast was sufficient and the room kept. I would definitely stay here again if visiting houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2016</t>
+  </si>
+  <si>
+    <t>The staff was great; especially the operations manager. She really made me feel valued and important. The breakfast was sufficient and the room kept. I would definitely stay here again if visiting houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r379009052-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>379009052</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>SATISFIED</t>
+  </si>
+  <si>
+    <t>I'm not sure of the male employees name that assisted us, but he was working the evening of 5/27 when we arrived around 11:30pm. He was very pleasant and helpful. The hotel was in an excellent location and tucked back on a semi-residential street with many trees. The professionalism was appreciated considering we arrived at the original hotel we booked around 11:15pm and was told they had been flooded recently and we were instead booked at TownePlace Suites. So glad we stayed! Everything was clean and the breakfast offered was plenty. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded June 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2016</t>
+  </si>
+  <si>
+    <t>I'm not sure of the male employees name that assisted us, but he was working the evening of 5/27 when we arrived around 11:30pm. He was very pleasant and helpful. The hotel was in an excellent location and tucked back on a semi-residential street with many trees. The professionalism was appreciated considering we arrived at the original hotel we booked around 11:15pm and was told they had been flooded recently and we were instead booked at TownePlace Suites. So glad we stayed! Everything was clean and the breakfast offered was plenty. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r376287684-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>376287684</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Nice place, nice location</t>
+  </si>
+  <si>
+    <t>Check-in was quick, friendly and they explained everything to you. Room was clean and room service was great. Wi-Fi worked well and all of the time I was there.Breakfast was simple(cereal, sausage, eggs, etc.) Super nice employees.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded May 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2016</t>
+  </si>
+  <si>
+    <t>Check-in was quick, friendly and they explained everything to you. Room was clean and room service was great. Wi-Fi worked well and all of the time I was there.Breakfast was simple(cereal, sausage, eggs, etc.) Super nice employees.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r359829527-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>359829527</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Not the best TownePlace, but is clean and quiet.</t>
+  </si>
+  <si>
+    <t>This location is starting to show its age.  You can tell they have repainted it, but even that new paint is starting to peel from the walls. Carpeting and furniture is old and the mattresses are still the low-end, but firm, mattresses you can get at any hotel.   Hallways are a little dark and all the common areas are really small. The bathroom vent in the room I was in was very loud. NOT IN THEIR CONTROL - traffic due to construction made it difficult to get in and out of the area the hotel is located. As others have said, they aren't really suites like the newer TownePlace locations, it is just a single room with a kitchen area included. Those are all the bad items.  Good items, this is set off the major roadways so it is quiet, the rooms, while dated, were clean and in decent condition. Staff was very kind and courteous. I would consider staying again, once the road construction is complete and it looks pretty close to it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2016</t>
+  </si>
+  <si>
+    <t>This location is starting to show its age.  You can tell they have repainted it, but even that new paint is starting to peel from the walls. Carpeting and furniture is old and the mattresses are still the low-end, but firm, mattresses you can get at any hotel.   Hallways are a little dark and all the common areas are really small. The bathroom vent in the room I was in was very loud. NOT IN THEIR CONTROL - traffic due to construction made it difficult to get in and out of the area the hotel is located. As others have said, they aren't really suites like the newer TownePlace locations, it is just a single room with a kitchen area included. Those are all the bad items.  Good items, this is set off the major roadways so it is quiet, the rooms, while dated, were clean and in decent condition. Staff was very kind and courteous. I would consider staying again, once the road construction is complete and it looks pretty close to it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r357309379-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>357309379</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Amazing Marriott Property.!!!</t>
+  </si>
+  <si>
+    <t>This is one of the good Marriott property in Plano,TX , about 23-25 Miles from Dallas airport. It had fully equipped kitchen with all the utensils . Room was really clean.Hot Breakfast buffet was good. This is little old Marriott  property but maintained well.Lots of option for Food nearby the hotel.This is next to Residence Inn hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded March 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2016</t>
+  </si>
+  <si>
+    <t>This is one of the good Marriott property in Plano,TX , about 23-25 Miles from Dallas airport. It had fully equipped kitchen with all the utensils . Room was really clean.Hot Breakfast buffet was good. This is little old Marriott  property but maintained well.Lots of option for Food nearby the hotel.This is next to Residence Inn hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r357130075-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>357130075</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Not really a suite</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 nights to visit family nearby. It was much smaller than expected - really not much bigger than a large hotel room. I had expected a suite to actually have a "bedroom" with a door, but it was more like a studio. The couch made out into a bed, but when out, it left no room to walk to the other side of the room/bed. The bed was not very comfortable either, and the walls were thin because we heard everyone's footsteps in the hall and the TV next door. The bathroom was small as well and didn't have any counter space. There wasn't a dresser to unpack clothes or even a suitcase stand, just a drawer in the TV stand and the nightstand drawers. The TV was big, but it was attached to the stand, so we had to turn the whole stand to watch TV in bed. Finally, the kitchen was barely equipped to cook in. It had a small 4 burner stove with oven, medium size refrigerator, microwave, toaster, and a dishwasher. But there were only 2 tiny knives, one large spoon, and one spatula, along with 3 inexpensive pots, a skillet, and a cookie sheet. The rest of the cooking utensils were a very used storage bowI set, a plastic multipurpose measuring cup, a colander, and a cutting board. I had to improvise a lot to cook twice a day, which was...We stayed here for 5 nights to visit family nearby. It was much smaller than expected - really not much bigger than a large hotel room. I had expected a suite to actually have a "bedroom" with a door, but it was more like a studio. The couch made out into a bed, but when out, it left no room to walk to the other side of the room/bed. The bed was not very comfortable either, and the walls were thin because we heard everyone's footsteps in the hall and the TV next door. The bathroom was small as well and didn't have any counter space. There wasn't a dresser to unpack clothes or even a suitcase stand, just a drawer in the TV stand and the nightstand drawers. The TV was big, but it was attached to the stand, so we had to turn the whole stand to watch TV in bed. Finally, the kitchen was barely equipped to cook in. It had a small 4 burner stove with oven, medium size refrigerator, microwave, toaster, and a dishwasher. But there were only 2 tiny knives, one large spoon, and one spatula, along with 3 inexpensive pots, a skillet, and a cookie sheet. The rest of the cooking utensils were a very used storage bowI set, a plastic multipurpose measuring cup, a colander, and a cutting board. I had to improvise a lot to cook twice a day, which was the reason for getting a room with a kitchenette in the first place. And the coffee maker was just a small 4 cup one!  We had to go buy a full size one the first day.  On the plus side, it was clean and the staff was very friendly. There is a laundry, but it costs $3.50 per load (because you have to run the dryer twice to get the clothes dry) and there are only 2 of each. There is a small exercise room with 2 treadmills, an elliptical, and some weights.  It was ok, but we won't stay there next time. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 nights to visit family nearby. It was much smaller than expected - really not much bigger than a large hotel room. I had expected a suite to actually have a "bedroom" with a door, but it was more like a studio. The couch made out into a bed, but when out, it left no room to walk to the other side of the room/bed. The bed was not very comfortable either, and the walls were thin because we heard everyone's footsteps in the hall and the TV next door. The bathroom was small as well and didn't have any counter space. There wasn't a dresser to unpack clothes or even a suitcase stand, just a drawer in the TV stand and the nightstand drawers. The TV was big, but it was attached to the stand, so we had to turn the whole stand to watch TV in bed. Finally, the kitchen was barely equipped to cook in. It had a small 4 burner stove with oven, medium size refrigerator, microwave, toaster, and a dishwasher. But there were only 2 tiny knives, one large spoon, and one spatula, along with 3 inexpensive pots, a skillet, and a cookie sheet. The rest of the cooking utensils were a very used storage bowI set, a plastic multipurpose measuring cup, a colander, and a cutting board. I had to improvise a lot to cook twice a day, which was...We stayed here for 5 nights to visit family nearby. It was much smaller than expected - really not much bigger than a large hotel room. I had expected a suite to actually have a "bedroom" with a door, but it was more like a studio. The couch made out into a bed, but when out, it left no room to walk to the other side of the room/bed. The bed was not very comfortable either, and the walls were thin because we heard everyone's footsteps in the hall and the TV next door. The bathroom was small as well and didn't have any counter space. There wasn't a dresser to unpack clothes or even a suitcase stand, just a drawer in the TV stand and the nightstand drawers. The TV was big, but it was attached to the stand, so we had to turn the whole stand to watch TV in bed. Finally, the kitchen was barely equipped to cook in. It had a small 4 burner stove with oven, medium size refrigerator, microwave, toaster, and a dishwasher. But there were only 2 tiny knives, one large spoon, and one spatula, along with 3 inexpensive pots, a skillet, and a cookie sheet. The rest of the cooking utensils were a very used storage bowI set, a plastic multipurpose measuring cup, a colander, and a cutting board. I had to improvise a lot to cook twice a day, which was the reason for getting a room with a kitchenette in the first place. And the coffee maker was just a small 4 cup one!  We had to go buy a full size one the first day.  On the plus side, it was clean and the staff was very friendly. There is a laundry, but it costs $3.50 per load (because you have to run the dryer twice to get the clothes dry) and there are only 2 of each. There is a small exercise room with 2 treadmills, an elliptical, and some weights.  It was ok, but we won't stay there next time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r337065265-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>337065265</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>The location was a little hard to find. The bed was soft, and I'm used to a firm mattress. But a decent value. If you are in Plano for business it would be ok. I did not try the breakfast. The front desk guy was helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2016</t>
+  </si>
+  <si>
+    <t>The location was a little hard to find. The bed was soft, and I'm used to a firm mattress. But a decent value. If you are in Plano for business it would be ok. I did not try the breakfast. The front desk guy was helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r335657127-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>335657127</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Traveled to Plano with our Son's family and stayed here for a couple of days. The hotel has probably been around for a while but obviously has been recently remodeled. Rooms were clean, well decorated, and had a kitchenette. The hotel is planned for longer term guests like relocated employees. There is no ice machines on the floors due to refrigerators with ice trays. There was an ice machine in the office area but it was broke. An employee offered to go elsewhere to get ice which he did.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded December 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2015</t>
+  </si>
+  <si>
+    <t>Traveled to Plano with our Son's family and stayed here for a couple of days. The hotel has probably been around for a while but obviously has been recently remodeled. Rooms were clean, well decorated, and had a kitchenette. The hotel is planned for longer term guests like relocated employees. There is no ice machines on the floors due to refrigerators with ice trays. There was an ice machine in the office area but it was broke. An employee offered to go elsewhere to get ice which he did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r330566435-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>330566435</t>
+  </si>
+  <si>
+    <t>12/03/2015</t>
+  </si>
+  <si>
+    <t>A wonderful home away from home</t>
+  </si>
+  <si>
+    <t>My family stayed at TownePlace Suites in Plano while we were having our home remodeled.  We were there for 17 nights.  It was an excellent experience.  The staff were always friendly and helpful.  One person really went above-and-beyond.  Robbie made my children Halloween plates with candy and fruit, since she knew we were away from home for trick or treat time.  She also would personally follow through on every fed ex delivery and helped me find some personal articles I accidentally left at the hotel.  The rooms were excellent for telecommuting--which is how I work.  It had a large desk and good internet.  Their pet friendly policy was also wonderful.  I will definitely stay here again if I ever have the need.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded December 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2015</t>
+  </si>
+  <si>
+    <t>My family stayed at TownePlace Suites in Plano while we were having our home remodeled.  We were there for 17 nights.  It was an excellent experience.  The staff were always friendly and helpful.  One person really went above-and-beyond.  Robbie made my children Halloween plates with candy and fruit, since she knew we were away from home for trick or treat time.  She also would personally follow through on every fed ex delivery and helped me find some personal articles I accidentally left at the hotel.  The rooms were excellent for telecommuting--which is how I work.  It had a large desk and good internet.  Their pet friendly policy was also wonderful.  I will definitely stay here again if I ever have the need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r327386119-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>327386119</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Good Value for the Money</t>
+  </si>
+  <si>
+    <t>Friendly staff and spacious rooms coupled with breakfast included makes this a pretty good deal in Plano where it can be tough to find anything below $200/ night. The fitness area is pretty sad so if that's important, don't stay here. As for room selection, I agree with other reviewers that traffic on the 1st floor is significant so I would suggest 2nd or 3rd floor as far away from the elevator as possible. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2015</t>
+  </si>
+  <si>
+    <t>Friendly staff and spacious rooms coupled with breakfast included makes this a pretty good deal in Plano where it can be tough to find anything below $200/ night. The fitness area is pretty sad so if that's important, don't stay here. As for room selection, I agree with other reviewers that traffic on the 1st floor is significant so I would suggest 2nd or 3rd floor as far away from the elevator as possible. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r325585391-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>325585391</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Outstanding Service, Average accomodations</t>
+  </si>
+  <si>
+    <t>I returned to the TownePlace Suites after a year and half when I was in town for a conference. The best thing about TownePlace Suites is the staff. They go above and beyond to make guests feel welcome. I even received an item I needed to purchase. I inquired at the front desk about where to purchase a medicinal product and was told, "We can take care of that." When I returned to my room after dinner it was there waiting for me. 
+The complimentary breakfast is certainly more than adequate: waffle press, hard boiled eggs, a variety of cold and instant hot cereals, yogurt, and breads. Not a stand out buffet but healthy options as well as typical continental stuff. The exercise room is minimalist to say the least. Dumbells up to 50#, a flat bench, and two treadmills. If you are serious about your training, this will disappoint but if you want to get in a few miles and do light weights then ok. It is a small room and if more than two people are working out I am sure it gets mighty crowded. 
+My room had a kitchenette, desk, couch, ubiquitous TV and King size bed (I think). Nothing spectacular but certainly adequate, maybe more so with the kitchenette. Wi-Fi is complimentary but I had a terrible time trying to get connected. I spent most of the time without Wi-Fi b/c I didn't want to take...I returned to the TownePlace Suites after a year and half when I was in town for a conference. The best thing about TownePlace Suites is the staff. They go above and beyond to make guests feel welcome. I even received an item I needed to purchase. I inquired at the front desk about where to purchase a medicinal product and was told, "We can take care of that." When I returned to my room after dinner it was there waiting for me. The complimentary breakfast is certainly more than adequate: waffle press, hard boiled eggs, a variety of cold and instant hot cereals, yogurt, and breads. Not a stand out buffet but healthy options as well as typical continental stuff. The exercise room is minimalist to say the least. Dumbells up to 50#, a flat bench, and two treadmills. If you are serious about your training, this will disappoint but if you want to get in a few miles and do light weights then ok. It is a small room and if more than two people are working out I am sure it gets mighty crowded. My room had a kitchenette, desk, couch, ubiquitous TV and King size bed (I think). Nothing spectacular but certainly adequate, maybe more so with the kitchenette. Wi-Fi is complimentary but I had a terrible time trying to get connected. I spent most of the time without Wi-Fi b/c I didn't want to take the time to contact the help number provided by the front desk. I eventually got connected but it was my last night.The pool is little more than an enlarged postage stamp and there is no hot-tub. That is not meant as a criticism, just information.Having coffee and other hot beverages available as well as fresh fruit throughout the day was a nice touch. As were complimentary copies of USA Today and WSJ.I thought about staying somewhere else but am glad I returned. When I am back in town I am sure I will check in again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, General Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded November 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2015</t>
+  </si>
+  <si>
+    <t>I returned to the TownePlace Suites after a year and half when I was in town for a conference. The best thing about TownePlace Suites is the staff. They go above and beyond to make guests feel welcome. I even received an item I needed to purchase. I inquired at the front desk about where to purchase a medicinal product and was told, "We can take care of that." When I returned to my room after dinner it was there waiting for me. 
+The complimentary breakfast is certainly more than adequate: waffle press, hard boiled eggs, a variety of cold and instant hot cereals, yogurt, and breads. Not a stand out buffet but healthy options as well as typical continental stuff. The exercise room is minimalist to say the least. Dumbells up to 50#, a flat bench, and two treadmills. If you are serious about your training, this will disappoint but if you want to get in a few miles and do light weights then ok. It is a small room and if more than two people are working out I am sure it gets mighty crowded. 
+My room had a kitchenette, desk, couch, ubiquitous TV and King size bed (I think). Nothing spectacular but certainly adequate, maybe more so with the kitchenette. Wi-Fi is complimentary but I had a terrible time trying to get connected. I spent most of the time without Wi-Fi b/c I didn't want to take...I returned to the TownePlace Suites after a year and half when I was in town for a conference. The best thing about TownePlace Suites is the staff. They go above and beyond to make guests feel welcome. I even received an item I needed to purchase. I inquired at the front desk about where to purchase a medicinal product and was told, "We can take care of that." When I returned to my room after dinner it was there waiting for me. The complimentary breakfast is certainly more than adequate: waffle press, hard boiled eggs, a variety of cold and instant hot cereals, yogurt, and breads. Not a stand out buffet but healthy options as well as typical continental stuff. The exercise room is minimalist to say the least. Dumbells up to 50#, a flat bench, and two treadmills. If you are serious about your training, this will disappoint but if you want to get in a few miles and do light weights then ok. It is a small room and if more than two people are working out I am sure it gets mighty crowded. My room had a kitchenette, desk, couch, ubiquitous TV and King size bed (I think). Nothing spectacular but certainly adequate, maybe more so with the kitchenette. Wi-Fi is complimentary but I had a terrible time trying to get connected. I spent most of the time without Wi-Fi b/c I didn't want to take the time to contact the help number provided by the front desk. I eventually got connected but it was my last night.The pool is little more than an enlarged postage stamp and there is no hot-tub. That is not meant as a criticism, just information.Having coffee and other hot beverages available as well as fresh fruit throughout the day was a nice touch. As were complimentary copies of USA Today and WSJ.I thought about staying somewhere else but am glad I returned. When I am back in town I am sure I will check in again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r300203418-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>300203418</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and Convenient!</t>
+  </si>
+  <si>
+    <t>Spent two weeks here during a recent business trip. The hotel itself is located in a perfect area, close to all major highways, a 7-11 within walking distance, and literally hundreds of places to eat within a five mile radius. The room itself was comfortable. I was pleasantly surprised by the bed, it was firm with a think layer of memory foam. Extremely comfortable and caused no issues with my bad back. The kitchen was nice, really only used the fridge to keep drinks cool, but the kitchen was decent size for cooking as well. Shower pressure was perfect, as was lighting. Internet was decent and was able to get work done. TV was a generic LCD, but it did have HDMI input so I was able to connect the computer and enjoy Netflix. Parking is plentiful, and never had an issue with finding a spot close to my room. Staff and management were all friendly and helpful.  Absolutely no complaints from me with this property. Recommend to all!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, General Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded December 4, 2015</t>
+  </si>
+  <si>
+    <t>Spent two weeks here during a recent business trip. The hotel itself is located in a perfect area, close to all major highways, a 7-11 within walking distance, and literally hundreds of places to eat within a five mile radius. The room itself was comfortable. I was pleasantly surprised by the bed, it was firm with a think layer of memory foam. Extremely comfortable and caused no issues with my bad back. The kitchen was nice, really only used the fridge to keep drinks cool, but the kitchen was decent size for cooking as well. Shower pressure was perfect, as was lighting. Internet was decent and was able to get work done. TV was a generic LCD, but it did have HDMI input so I was able to connect the computer and enjoy Netflix. Parking is plentiful, and never had an issue with finding a spot close to my room. Staff and management were all friendly and helpful.  Absolutely no complaints from me with this property. Recommend to all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r270714732-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>270714732</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel in an ideal setting</t>
+  </si>
+  <si>
+    <t>This is more like a house than a hotel (which is what Marriot Towneplace suites are supposed be - anyway).A quiet green neighborhood away from the traffic...a couple of places within walking distance to have your food - good decent rooms - and above all very friendly staff to answer all questions and provide info about the neighborhood etc.Great Value for money!!!</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r270667130-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>270667130</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>Perfect Extended Stay Place!</t>
+  </si>
+  <si>
+    <t>My husband and i, along with our one year old baby stayed for almost 33 nights in this hotel. Though the size of the room is quite small, but it was worth the penny we spent. Ample parking space provided.The bathroom is clean, sufficiently stocked with extra toilet rolls, toiletries etc. even have a bath tub. Quite a number of channels on the TV. Bed was comfy. Wifi has good coverage as well.Complimentary breakfast is also great to have. Not much choice, but no complains. Kitchen was also complete with utensil, cutleries and cooking essentials. Also, quite a number of halal eating place just few minutes drive away from this place. Definitely will come again if we are around the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>My husband and i, along with our one year old baby stayed for almost 33 nights in this hotel. Though the size of the room is quite small, but it was worth the penny we spent. Ample parking space provided.The bathroom is clean, sufficiently stocked with extra toilet rolls, toiletries etc. even have a bath tub. Quite a number of channels on the TV. Bed was comfy. Wifi has good coverage as well.Complimentary breakfast is also great to have. Not much choice, but no complains. Kitchen was also complete with utensil, cutleries and cooking essentials. Also, quite a number of halal eating place just few minutes drive away from this place. Definitely will come again if we are around the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r270235696-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>270235696</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Showing Some Wear</t>
+  </si>
+  <si>
+    <t>I stayed here because the Residence Inn was not available.  Quite a difference!  Worn furnishings and fixtures.  Not you usual Marroitt quality.  I also forgot a gold ring left on the computer center.  I realized I left it within ten minutes of my departure for the airport but did not have the time to return.  I was told it was not in the room.  Quite disappointing.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, General Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded May 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here because the Residence Inn was not available.  Quite a difference!  Worn furnishings and fixtures.  Not you usual Marroitt quality.  I also forgot a gold ring left on the computer center.  I realized I left it within ten minutes of my departure for the airport but did not have the time to return.  I was told it was not in the room.  Quite disappointing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r246118949-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>246118949</t>
+  </si>
+  <si>
+    <t>12/27/2014</t>
+  </si>
+  <si>
+    <t>Quiet   Comfortable   Convenient</t>
+  </si>
+  <si>
+    <t>Very quiet in a residential setting but very conveniently located (NW corner of Preston Rd and Springcreek Pkwy behind Residence Inn; less than 2 miles to Tollway). Staff very friendly.We stayed 1 full week in a 2BR suite. It was really great. While the breakfast choices are very limited (if you want a full breakfast, you will have to cook your own or go out to eat), I was happy to get decent OJ, wheat bread for toast, and chocolate milk :) My husband had waffles, cereal, toast, English muffins, etc. on different days. Yes, the seating area is very small but there is a full kitchen in a suite so why complain.I had no problems with Internet connection. There was plenty of hot water :) Beds were comfortable. 3 flat screen TVs in our suite.Yes, Marriott, it's time to remodel. While the lobby area has been remodeled, the suites have not been and it's time.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, General Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2014</t>
+  </si>
+  <si>
+    <t>Very quiet in a residential setting but very conveniently located (NW corner of Preston Rd and Springcreek Pkwy behind Residence Inn; less than 2 miles to Tollway). Staff very friendly.We stayed 1 full week in a 2BR suite. It was really great. While the breakfast choices are very limited (if you want a full breakfast, you will have to cook your own or go out to eat), I was happy to get decent OJ, wheat bread for toast, and chocolate milk :) My husband had waffles, cereal, toast, English muffins, etc. on different days. Yes, the seating area is very small but there is a full kitchen in a suite so why complain.I had no problems with Internet connection. There was plenty of hot water :) Beds were comfortable. 3 flat screen TVs in our suite.Yes, Marriott, it's time to remodel. While the lobby area has been remodeled, the suites have not been and it's time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r245763430-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>245763430</t>
+  </si>
+  <si>
+    <t>12/24/2014</t>
+  </si>
+  <si>
+    <t>2 day of R &amp; R.</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location. Room was clean up to date amenities and the bed slept great! It was nice to have the fridge and the microwave, this benefit is really nice if staying for than a few days. The staff was professional and even gave me a call to check to see if everything was alright. Overall it was a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, General Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded December 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location. Room was clean up to date amenities and the bed slept great! It was nice to have the fridge and the microwave, this benefit is really nice if staying for than a few days. The staff was professional and even gave me a call to check to see if everything was alright. Overall it was a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r234421815-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>234421815</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Late night check-in was no problem</t>
+  </si>
+  <si>
+    <t>Drove straight through from Central Florida to Dallas area and we arrived very late. Had a fantastic room, very comfortable, nice little kitchen ... wish we were staying longer to take advantage of all it offered. Adequate free breakfast, which I didn't know was included. Will return next trip thru Dallas area.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r219947487-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>219947487</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Strongly Recommend!</t>
+  </si>
+  <si>
+    <t>I had stayed in TownePlace suites as part of my business trip for close to 16 days during June - July 2014. To summarize it in one word, the hotel is really good. A good breakfast (though the breakfast area is too small to sit and relax), excellent room with fully equipped kitchen, comfortable bed, good A/C, nice gym and swimming pool etc... There shuttle service to nearby places is also excellent. Really enjoyed the stay and is certainly value for money give Plano is a business hub.On the flip side, the internet connection was a bit slow at times. Still on an average it was good. Overall I would strongly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Marriott TowneP... P, General Manager at TownePlace Suites Dallas Plano, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2014</t>
+  </si>
+  <si>
+    <t>I had stayed in TownePlace suites as part of my business trip for close to 16 days during June - July 2014. To summarize it in one word, the hotel is really good. A good breakfast (though the breakfast area is too small to sit and relax), excellent room with fully equipped kitchen, comfortable bed, good A/C, nice gym and swimming pool etc... There shuttle service to nearby places is also excellent. Really enjoyed the stay and is certainly value for money give Plano is a business hub.On the flip side, the internet connection was a bit slow at times. Still on an average it was good. Overall I would strongly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r213623254-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>213623254</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>Fine TownePlace; clean and functional</t>
+  </si>
+  <si>
+    <t>TownePlace is a value brand.  We received a great price for a two-BR suite.  Internet was fast, bathroom clean, kitchen adequately equipped. Beds are comfortable, AC powerful enough to keep the room cool in the Texas heat.  Workout facility has free weights and a couple of treadmills.  Nice touch that the front desk will provide free passes to a nearby LA Fitness center.  This TownePlace has friendly staff and care about the visitor.  Breakfast was fine (cold cereal, oatmeal, hard boiled eggs, waffles, breads, and fruit). Pool is outdoors, and was clean.  Location is convenient to Plano and Frisco (Stonebriar Mall, the Tollway, Plano corporate center, etc.)   Our routine (and thorough) bed bug check came up clean.  Pet friendly.  Not as "nice" as a Holiday Inn Express, but more economical and just as functional.MoreShow less</t>
+  </si>
+  <si>
+    <t>TownePlace is a value brand.  We received a great price for a two-BR suite.  Internet was fast, bathroom clean, kitchen adequately equipped. Beds are comfortable, AC powerful enough to keep the room cool in the Texas heat.  Workout facility has free weights and a couple of treadmills.  Nice touch that the front desk will provide free passes to a nearby LA Fitness center.  This TownePlace has friendly staff and care about the visitor.  Breakfast was fine (cold cereal, oatmeal, hard boiled eggs, waffles, breads, and fruit). Pool is outdoors, and was clean.  Location is convenient to Plano and Frisco (Stonebriar Mall, the Tollway, Plano corporate center, etc.)   Our routine (and thorough) bed bug check came up clean.  Pet friendly.  Not as "nice" as a Holiday Inn Express, but more economical and just as functional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r212386031-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>212386031</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>Excellent hotel but Breakfast area is really small!</t>
+  </si>
+  <si>
+    <t>Stayed here June 21st weekend for Jimmy Buffet concert. The hotel itself was very nice, with a nice staff, and comfortable room. The problem was the Breakfast area. There was a Boys Soccer and Basketball team staying at the hotel and the area where Breakfast is served was not big enough to accommodate all who wanted to eat. I'm surprised for the size of this hotel that the area wasn't built bigger. The Breakfast was just ok...cereal, yogurt, make-your-own waffles, bagels, etc. Our room was clean, and the beds were comfortable. I had to give it 4 stars just because of the Breakfast area. If you're staying here, I would plan on going out for Breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here June 21st weekend for Jimmy Buffet concert. The hotel itself was very nice, with a nice staff, and comfortable room. The problem was the Breakfast area. There was a Boys Soccer and Basketball team staying at the hotel and the area where Breakfast is served was not big enough to accommodate all who wanted to eat. I'm surprised for the size of this hotel that the area wasn't built bigger. The Breakfast was just ok...cereal, yogurt, make-your-own waffles, bagels, etc. Our room was clean, and the beds were comfortable. I had to give it 4 stars just because of the Breakfast area. If you're staying here, I would plan on going out for Breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r194866408-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>194866408</t>
+  </si>
+  <si>
+    <t>02/21/2014</t>
+  </si>
+  <si>
+    <t>Service was excellent</t>
+  </si>
+  <si>
+    <t>Convenient location.  Nice surroundings.  Comfortable.  Service was excellent!  Front desk clerk was so kind and even called later to make sure everything was good in my room.  Manager upon check in bought my sodas and was extremely pleasant in the morning!</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r180450434-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>180450434</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Excellent for the money!</t>
+  </si>
+  <si>
+    <t>Not top notch or high class, but for the money you get a full kitchen, sofa, bed and free breakfast.  Breakfast room is small and stuffy... but it's free, right?  Again, for the cost it's worth it.  Besides you can cook your own eggs in your room.  Cleanliness was the best part.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r179239560-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>179239560</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>Good hotel in Plano to access certain areas</t>
+  </si>
+  <si>
+    <t>The expectations should be realistic while staying at a Townplace, the whole stay (5 days on business) was average. The location is quiet but a few minutes away from the tech corridor. The suite offers everything needed to have a comfortable stay and there are some food delivery options close by.They breakfast as expected is minimal, some cereals, bread and the do-your-own-waffle machine.Overall is a good value for the price.I only experience a bad attitude at check out with the guy behind the front desk. He was too busy with his cellphone to process the checkout faster.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r165359892-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>165359892</t>
+  </si>
+  <si>
+    <t>06/26/2013</t>
+  </si>
+  <si>
+    <t>A good value</t>
+  </si>
+  <si>
+    <t>We stayed just for one night - needed a reasonably priced place that was not more than 20 minutes away from FC Dallas Stadium and this fit the bill.   Staff was friendly and professional, property was extremely clean and safe and our stay was nice.  It is a value property so don't expect anything fancy but it is clean and safe.   The room was nicely renovated but the hallways are dark and don't match the room - hopefully they will brighten the hallway lighting at some point.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r160100388-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>160100388</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>Fairly basic but great value</t>
+  </si>
+  <si>
+    <t>I stayed here for two weeks while on business.  Rooms are well-equipped and pleasantly furnished.  Housekeeping was excellent and everywhere was spotlessly clean.  Staff were also very friendly and helpful.  A complimentary basic breakfast is offered which wasn't bad.  A good value choice.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r160095606-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>160095606</t>
+  </si>
+  <si>
+    <t>Warm Place for Extended Stay</t>
+  </si>
+  <si>
+    <t>Relocating with a family of four, including a two-year old and 10-month old, we stayed for 25 days in a 2-bedroom suite.  With the full kitchen (Fridge, Oven, 4-burner Stove, Sink, and Dish Washer), this hotel helped our young family transition while waiting to move into our house.
+The hotel staff was very friendly which made the stay very welcoming.  The continental breakfast included a selection of fruits, cereals, yogurt, array of juice choices, make-your-own waffle, and hot coffee.  The breakfast room is quaint and can be crowded depending on what time you visit.
+Parking spaces were always available and had plenty of lighting.  Although there is a market place for snacks/drinks in the front lobby with not-so-friendly prices, there is a 7-11 convenient store behind the hotel on Preston Rd.
+The rooms were very clean and the beds were comfortable for the extended stay.  There was a 32 inch TV in each room with a nice amount of channels available.  The AC was a little loud, but not bad where I couldnt sleep - I am a very light sleeper and had no issue with the blackout curtains.
+The only issue I had was the WiFi in the rooms.  While fully connected, the speed at night was not good at all.  I imagine the latency was due to heavy usage, the company that is contracted to provide Internet services might consider using a better Quality-Of-Service policy.  Again, the Internet...Relocating with a family of four, including a two-year old and 10-month old, we stayed for 25 days in a 2-bedroom suite.  With the full kitchen (Fridge, Oven, 4-burner Stove, Sink, and Dish Washer), this hotel helped our young family transition while waiting to move into our house.The hotel staff was very friendly which made the stay very welcoming.  The continental breakfast included a selection of fruits, cereals, yogurt, array of juice choices, make-your-own waffle, and hot coffee.  The breakfast room is quaint and can be crowded depending on what time you visit.Parking spaces were always available and had plenty of lighting.  Although there is a market place for snacks/drinks in the front lobby with not-so-friendly prices, there is a 7-11 convenient store behind the hotel on Preston Rd.The rooms were very clean and the beds were comfortable for the extended stay.  There was a 32 inch TV in each room with a nice amount of channels available.  The AC was a little loud, but not bad where I couldnt sleep - I am a very light sleeper and had no issue with the blackout curtains.The only issue I had was the WiFi in the rooms.  While fully connected, the speed at night was not good at all.  I imagine the latency was due to heavy usage, the company that is contracted to provide Internet services might consider using a better Quality-Of-Service policy.  Again, the Internet was fine in the mornings and during the day, but it was often difficult to open up a page at night.  I reported the issue to the front desk and they relayed the issue(s) to the 3rd-Party company.I would definitely stay there again and would recommend it to anyone traveling on extended stays needing a nice kitchen to prepare meals in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Relocating with a family of four, including a two-year old and 10-month old, we stayed for 25 days in a 2-bedroom suite.  With the full kitchen (Fridge, Oven, 4-burner Stove, Sink, and Dish Washer), this hotel helped our young family transition while waiting to move into our house.
+The hotel staff was very friendly which made the stay very welcoming.  The continental breakfast included a selection of fruits, cereals, yogurt, array of juice choices, make-your-own waffle, and hot coffee.  The breakfast room is quaint and can be crowded depending on what time you visit.
+Parking spaces were always available and had plenty of lighting.  Although there is a market place for snacks/drinks in the front lobby with not-so-friendly prices, there is a 7-11 convenient store behind the hotel on Preston Rd.
+The rooms were very clean and the beds were comfortable for the extended stay.  There was a 32 inch TV in each room with a nice amount of channels available.  The AC was a little loud, but not bad where I couldnt sleep - I am a very light sleeper and had no issue with the blackout curtains.
+The only issue I had was the WiFi in the rooms.  While fully connected, the speed at night was not good at all.  I imagine the latency was due to heavy usage, the company that is contracted to provide Internet services might consider using a better Quality-Of-Service policy.  Again, the Internet...Relocating with a family of four, including a two-year old and 10-month old, we stayed for 25 days in a 2-bedroom suite.  With the full kitchen (Fridge, Oven, 4-burner Stove, Sink, and Dish Washer), this hotel helped our young family transition while waiting to move into our house.The hotel staff was very friendly which made the stay very welcoming.  The continental breakfast included a selection of fruits, cereals, yogurt, array of juice choices, make-your-own waffle, and hot coffee.  The breakfast room is quaint and can be crowded depending on what time you visit.Parking spaces were always available and had plenty of lighting.  Although there is a market place for snacks/drinks in the front lobby with not-so-friendly prices, there is a 7-11 convenient store behind the hotel on Preston Rd.The rooms were very clean and the beds were comfortable for the extended stay.  There was a 32 inch TV in each room with a nice amount of channels available.  The AC was a little loud, but not bad where I couldnt sleep - I am a very light sleeper and had no issue with the blackout curtains.The only issue I had was the WiFi in the rooms.  While fully connected, the speed at night was not good at all.  I imagine the latency was due to heavy usage, the company that is contracted to provide Internet services might consider using a better Quality-Of-Service policy.  Again, the Internet was fine in the mornings and during the day, but it was often difficult to open up a page at night.  I reported the issue to the front desk and they relayed the issue(s) to the 3rd-Party company.I would definitely stay there again and would recommend it to anyone traveling on extended stays needing a nice kitchen to prepare meals in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r154543955-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>154543955</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Great great value!</t>
+  </si>
+  <si>
+    <t>Our room was clean, like validly clean. The mattress was actually very comfortable, but the sheets were a bit rough for my taste. The hallways and elevator could have used a vacuum, but it was really windy outside and I think maybe leaves just kept blowing in because the 2nd floor hallway was clean. The kitchenette even has a stove/oven combo, something most kitchenettes lack in hotels. The breakfast was lacking, but for that price I was okay with that.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r154271036-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>154271036</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>Our first time at a TownePlace Suite and it was SUPER....</t>
+  </si>
+  <si>
+    <t>My wife and 4year old travel a bunch and this would be our first stay at a Towneplace Suites. I have to say it was really good.
+We can in town to visit the circus that was at the Dr.Pepper Arena on Saturday. We stayed here so we didn't have to drive all the back at 11pm, and it was a good meet up place for the other family we were going with.
+The check in was very easy. The person at the front desk asked me if I needed any directions any where, she showed me around the lobby, showed me where the elevators were and all mentioned all about the breakfast in the morning. She gave me 75% more info than many front desk people at high end hotels. The free Wifi was a plus as well.
+We got to the room and we had a studio, which came with a Queen bed, pull out sofa and a full kitchen. We ended up making dinner for us and the other family before the circus and there was plenty of room for the 3 kids and 3 adults. The only thing I didn't like was that they advertised that the windows opened up, but they only open up by a matter of 2 fingers. I wish we could of got some more air at night since it was really nice outside after it rained. If the windows open at...My wife and 4year old travel a bunch and this would be our first stay at a Towneplace Suites. I have to say it was really good.We can in town to visit the circus that was at the Dr.Pepper Arena on Saturday. We stayed here so we didn't have to drive all the back at 11pm, and it was a good meet up place for the other family we were going with.The check in was very easy. The person at the front desk asked me if I needed any directions any where, she showed me around the lobby, showed me where the elevators were and all mentioned all about the breakfast in the morning. She gave me 75% more info than many front desk people at high end hotels. The free Wifi was a plus as well.We got to the room and we had a studio, which came with a Queen bed, pull out sofa and a full kitchen. We ended up making dinner for us and the other family before the circus and there was plenty of room for the 3 kids and 3 adults. The only thing I didn't like was that they advertised that the windows opened up, but they only open up by a matter of 2 fingers. I wish we could of got some more air at night since it was really nice outside after it rained. If the windows open at a hotel, I try and open them to get fresh air and maybe do my part in saving energy. Everything in the kitchen worked, the bed was comfy, and the pull out sofa worked just fine for out 4year old. The free breakfast was really good. My son loved the Texas shaped waffles and whipped cream. My wife and I had some fruit and juice/coffee. It was a wonderful stay and if we ever need another night in Plano for any reason we will stay here again. It really was a great location for anything in Frisco, if those hotels are sold out for any reason.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and 4year old travel a bunch and this would be our first stay at a Towneplace Suites. I have to say it was really good.
+We can in town to visit the circus that was at the Dr.Pepper Arena on Saturday. We stayed here so we didn't have to drive all the back at 11pm, and it was a good meet up place for the other family we were going with.
+The check in was very easy. The person at the front desk asked me if I needed any directions any where, she showed me around the lobby, showed me where the elevators were and all mentioned all about the breakfast in the morning. She gave me 75% more info than many front desk people at high end hotels. The free Wifi was a plus as well.
+We got to the room and we had a studio, which came with a Queen bed, pull out sofa and a full kitchen. We ended up making dinner for us and the other family before the circus and there was plenty of room for the 3 kids and 3 adults. The only thing I didn't like was that they advertised that the windows opened up, but they only open up by a matter of 2 fingers. I wish we could of got some more air at night since it was really nice outside after it rained. If the windows open at...My wife and 4year old travel a bunch and this would be our first stay at a Towneplace Suites. I have to say it was really good.We can in town to visit the circus that was at the Dr.Pepper Arena on Saturday. We stayed here so we didn't have to drive all the back at 11pm, and it was a good meet up place for the other family we were going with.The check in was very easy. The person at the front desk asked me if I needed any directions any where, she showed me around the lobby, showed me where the elevators were and all mentioned all about the breakfast in the morning. She gave me 75% more info than many front desk people at high end hotels. The free Wifi was a plus as well.We got to the room and we had a studio, which came with a Queen bed, pull out sofa and a full kitchen. We ended up making dinner for us and the other family before the circus and there was plenty of room for the 3 kids and 3 adults. The only thing I didn't like was that they advertised that the windows opened up, but they only open up by a matter of 2 fingers. I wish we could of got some more air at night since it was really nice outside after it rained. If the windows open at a hotel, I try and open them to get fresh air and maybe do my part in saving energy. Everything in the kitchen worked, the bed was comfy, and the pull out sofa worked just fine for out 4year old. The free breakfast was really good. My son loved the Texas shaped waffles and whipped cream. My wife and I had some fruit and juice/coffee. It was a wonderful stay and if we ever need another night in Plano for any reason we will stay here again. It really was a great location for anything in Frisco, if those hotels are sold out for any reason.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r153396585-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>153396585</t>
+  </si>
+  <si>
+    <t>02/28/2013</t>
+  </si>
+  <si>
+    <t>Superior management puts this hotel above the rest</t>
+  </si>
+  <si>
+    <t>This is a pleasant business hotel, with nice, spacious rooms, clean common areas, pleasant landscaped grounds and friendly staff.  Yet the General Manager, Pablo Villarroel, sets a positive and welcoming tone for this property that sets it far above the rest.His friendly greeting in the morning was such a pleasant surprise!  His upbeat attitude of putting the customer first sets the tone for the entire hotel team - every staff member I encountered was friendly and smiling.Marriott International should bottle what Mr. Villarroel is doing and replicate it!  I will return to this hotel and recommend this hotel to friends without a second thought!</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r151060143-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>151060143</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>Highly recommended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I ended up at this hotel because the original Marriott where I was supposed to have a room overbooked. I didn't even complain and they made it complementary. It was right next door and it was very clean. The manager was extremely welcoming and I was staying only one night, but they still gave me a tour of the whole place. I would definitley stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r147049207-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>147049207</t>
+  </si>
+  <si>
+    <t>12/09/2012</t>
+  </si>
+  <si>
+    <t>fair business hotel</t>
+  </si>
+  <si>
+    <t>I stayed here while in the area for business in December 2012.  The staff is extremely friendly and helpful.  The location is good: off a main road in a quiet area.  The free breakfast is fine, but it is served in a small room that seemed to get full too quickly.  The exercise room also seems a bit undersized and was full when I visited.  The room was fine, but the fixtures and furniture were low end and could use a refreshing.  I had a lot of noise from people talking in the room next door.  My biggest complaint was the wireless internet, which was very slow to the point of being useless.  I got a strong and consistent signal, but I could not load web pages and finally gave up.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>I stayed here while in the area for business in December 2012.  The staff is extremely friendly and helpful.  The location is good: off a main road in a quiet area.  The free breakfast is fine, but it is served in a small room that seemed to get full too quickly.  The exercise room also seems a bit undersized and was full when I visited.  The room was fine, but the fixtures and furniture were low end and could use a refreshing.  I had a lot of noise from people talking in the room next door.  My biggest complaint was the wireless internet, which was very slow to the point of being useless.  I got a strong and consistent signal, but I could not load web pages and finally gave up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r143688955-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>143688955</t>
+  </si>
+  <si>
+    <t>10/25/2012</t>
+  </si>
+  <si>
+    <t>Terrible. See list below.</t>
+  </si>
+  <si>
+    <t>* Have to make a left turn over 6 lanes of traffic to get out of the hotel (If headed towards Frisco). There is no traffic light and it was stressful to get out everyday.* Stagnant water left in dishwasher and mildew in bottom corners upon arrival. I did not feel comfortable washing my dishes in this.* Barely any kitchen utensils* Running toilet* AC units not working properly (staff unfriendly and unhelpful with this)* Watched a staff member empty an outside ash tray full of water and butts onto the ground, next to the picnic tables where guests congregate.* Staff unconcerned about wet carpet from an overflowing toilet. The carpet was left uncleaned, resulting in the room smelling like sewage for a week+.* Couches in rooms need to be thrown away. They are disgusting.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>* Have to make a left turn over 6 lanes of traffic to get out of the hotel (If headed towards Frisco). There is no traffic light and it was stressful to get out everyday.* Stagnant water left in dishwasher and mildew in bottom corners upon arrival. I did not feel comfortable washing my dishes in this.* Barely any kitchen utensils* Running toilet* AC units not working properly (staff unfriendly and unhelpful with this)* Watched a staff member empty an outside ash tray full of water and butts onto the ground, next to the picnic tables where guests congregate.* Staff unconcerned about wet carpet from an overflowing toilet. The carpet was left uncleaned, resulting in the room smelling like sewage for a week+.* Couches in rooms need to be thrown away. They are disgusting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r130901138-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>130901138</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>Location, Most of the Staff, and Size of Rooms ++</t>
+  </si>
+  <si>
+    <t>It's located off of a busy road in the newer part of Plano, but feels very residential when you're at the hotel. If I was staying for a long (month+) stay, I could see how appealing this hotel would be. It's a pretty easy drive to get anywhere and there are lots of new outdoor mall and shopping / eating areas nearby. However, you definitely need a car because nothing is really in walking distance.
+The rooms are the typical TownePlace Suites with kitchenette, but the studios in this hotel are quite a bit bigger than I've encountered before.  While not brand new, they seemed to be well taken care of and everything functioned properly. The bathroom was on the small side, but not unreasonably so.
+The pool was small and only had 3 lounge chairs (not enough for the size of hotel) and could have used a good cleaning - lots of bugs and debris in it. The breakfast was your typical fare including the waffle maker, hard boiled eggs, and mostly pastries / cereal / yogurt - thanks for including Greek yogurt! There is a separate room for this and an attendant on hand if anything runs out.
+The parking lot was not huge, but we never had a problem finding somewhere to park. The wireless internet also worked well throughout our stay.
+The staff was mostly hit and a couple of big misses. I thought the evening...It's located off of a busy road in the newer part of Plano, but feels very residential when you're at the hotel. If I was staying for a long (month+) stay, I could see how appealing this hotel would be. It's a pretty easy drive to get anywhere and there are lots of new outdoor mall and shopping / eating areas nearby. However, you definitely need a car because nothing is really in walking distance.The rooms are the typical TownePlace Suites with kitchenette, but the studios in this hotel are quite a bit bigger than I've encountered before.  While not brand new, they seemed to be well taken care of and everything functioned properly. The bathroom was on the small side, but not unreasonably so.The pool was small and only had 3 lounge chairs (not enough for the size of hotel) and could have used a good cleaning - lots of bugs and debris in it. The breakfast was your typical fare including the waffle maker, hard boiled eggs, and mostly pastries / cereal / yogurt - thanks for including Greek yogurt! There is a separate room for this and an attendant on hand if anything runs out.The parking lot was not huge, but we never had a problem finding somewhere to park. The wireless internet also worked well throughout our stay.The staff was mostly hit and a couple of big misses. I thought the evening and night staff were great, but the young lady on the weekends often looked confused and didn't seem empowered to answer any questions or solve problems. I also had a couple of small issues involving the maintenance guy and he was terribly rude.It's a pretty good choice for Plano or if you're working on a shorter contract in the area and need an extended stay choice that feels more apartment-like than hotel-like.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>It's located off of a busy road in the newer part of Plano, but feels very residential when you're at the hotel. If I was staying for a long (month+) stay, I could see how appealing this hotel would be. It's a pretty easy drive to get anywhere and there are lots of new outdoor mall and shopping / eating areas nearby. However, you definitely need a car because nothing is really in walking distance.
+The rooms are the typical TownePlace Suites with kitchenette, but the studios in this hotel are quite a bit bigger than I've encountered before.  While not brand new, they seemed to be well taken care of and everything functioned properly. The bathroom was on the small side, but not unreasonably so.
+The pool was small and only had 3 lounge chairs (not enough for the size of hotel) and could have used a good cleaning - lots of bugs and debris in it. The breakfast was your typical fare including the waffle maker, hard boiled eggs, and mostly pastries / cereal / yogurt - thanks for including Greek yogurt! There is a separate room for this and an attendant on hand if anything runs out.
+The parking lot was not huge, but we never had a problem finding somewhere to park. The wireless internet also worked well throughout our stay.
+The staff was mostly hit and a couple of big misses. I thought the evening...It's located off of a busy road in the newer part of Plano, but feels very residential when you're at the hotel. If I was staying for a long (month+) stay, I could see how appealing this hotel would be. It's a pretty easy drive to get anywhere and there are lots of new outdoor mall and shopping / eating areas nearby. However, you definitely need a car because nothing is really in walking distance.The rooms are the typical TownePlace Suites with kitchenette, but the studios in this hotel are quite a bit bigger than I've encountered before.  While not brand new, they seemed to be well taken care of and everything functioned properly. The bathroom was on the small side, but not unreasonably so.The pool was small and only had 3 lounge chairs (not enough for the size of hotel) and could have used a good cleaning - lots of bugs and debris in it. The breakfast was your typical fare including the waffle maker, hard boiled eggs, and mostly pastries / cereal / yogurt - thanks for including Greek yogurt! There is a separate room for this and an attendant on hand if anything runs out.The parking lot was not huge, but we never had a problem finding somewhere to park. The wireless internet also worked well throughout our stay.The staff was mostly hit and a couple of big misses. I thought the evening and night staff were great, but the young lady on the weekends often looked confused and didn't seem empowered to answer any questions or solve problems. I also had a couple of small issues involving the maintenance guy and he was terribly rude.It's a pretty good choice for Plano or if you're working on a shorter contract in the area and need an extended stay choice that feels more apartment-like than hotel-like.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r129399663-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>129399663</t>
+  </si>
+  <si>
+    <t>05/05/2012</t>
+  </si>
+  <si>
+    <t>What a room.</t>
+  </si>
+  <si>
+    <t>A single could live in this nice room.  The little kitchen had a four burner stove, larger ice box, dish washer, service for three, etc. etc.  Very clean nice quiet room at a fair price.  Friendly front desk at arrival and departure.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r126036360-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>126036360</t>
+  </si>
+  <si>
+    <t>03/13/2012</t>
+  </si>
+  <si>
+    <t>I am happy with my stay here but just the staff are incapable to provide proper internet service during my stay. When I have extended my stay in Suites initially, they should have informed the internet provider know about it. But everytime the internet used to DROP and no wireless service at all. When I would call the reception, they would connect me to service provider and to get the wireless work at my suite, I should be on hold for hours in a day and wouldn't get internet at all. They would say ''you will get a call back, but no call''.I should cal and ask the reception to send some dishwasher powder,creamer for coffee and soaps. Once asked wasn't getting it untill the next day when someone would come to clean the room. The reply from the reception to the above information will be - there is no staff, so can you come down and pick the things. I am happy with my stay there but just the few services weren't good there at this stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I am happy with my stay here but just the staff are incapable to provide proper internet service during my stay. When I have extended my stay in Suites initially, they should have informed the internet provider know about it. But everytime the internet used to DROP and no wireless service at all. When I would call the reception, they would connect me to service provider and to get the wireless work at my suite, I should be on hold for hours in a day and wouldn't get internet at all. They would say ''you will get a call back, but no call''.I should cal and ask the reception to send some dishwasher powder,creamer for coffee and soaps. Once asked wasn't getting it untill the next day when someone would come to clean the room. The reply from the reception to the above information will be - there is no staff, so can you come down and pick the things. I am happy with my stay there but just the few services weren't good there at this stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r116748346-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>116748346</t>
+  </si>
+  <si>
+    <t>08/15/2011</t>
+  </si>
+  <si>
+    <t>Quiet, Clean, and Centrally Located!</t>
+  </si>
+  <si>
+    <t>This is a great property located in the center of Plano close to just about anything you would like to do.  The staff is very courteous and the rooms are very clean.  The beds are very comfy and they even have great pillows as well.  The pool is outdoors and in the center of the property.  The breakfast is pretty standard, but everything is well stocked and there is an attendant hovering close by to respond to any and every need during the serving hours.  Definitely a great place to stay at a fair price if you are in the Plano area!</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r115908825-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>115908825</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Excellent value and good location</t>
+  </si>
+  <si>
+    <t>I stayed at the TownePlace Suites Dallas Plano on business for around 10 days. The hotel is very well located, close to The Shops at Legacy and Stonebriar Mall. Service is good and the beds are very comfortable. They also have a kitchenette, but I did not use it. Breakfast is included, but is very basic and you have to use foam plates. There is a very basic gym, good for cardio, not so much for weights. They also have a PC/printer in the lobby, but I wouldn't call it a business center.Internet is not wireless and you cannot watch TV from your bed, you have to sit on a sofa.If you're looking for a clean hotel at a good price, this is a very solid option. Don't expect luxuries.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I stayed at the TownePlace Suites Dallas Plano on business for around 10 days. The hotel is very well located, close to The Shops at Legacy and Stonebriar Mall. Service is good and the beds are very comfortable. They also have a kitchenette, but I did not use it. Breakfast is included, but is very basic and you have to use foam plates. There is a very basic gym, good for cardio, not so much for weights. They also have a PC/printer in the lobby, but I wouldn't call it a business center.Internet is not wireless and you cannot watch TV from your bed, you have to sit on a sofa.If you're looking for a clean hotel at a good price, this is a very solid option. Don't expect luxuries.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r114709736-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>114709736</t>
+  </si>
+  <si>
+    <t>06/24/2011</t>
+  </si>
+  <si>
+    <t>Real Home away from Home</t>
+  </si>
+  <si>
+    <t>As we were relocating to Plano TX, we had the opportunity  to stay at the TownePlace suites . It was really a home away from home for our extended stay!!  The 19 days were spent in comfort. The place is calm and does not look like a hotel.  The suites were spacious, spick and span. There is plenty of space to walk and jog around with no traffic hassle.The ever smiling and greeting front desk staff and the maintenance crew are to be complimented,who do an excellent job . The suites have a kitchen with all necessities making daily cooking comfortable.  A rice cooker could add to the requirement. Both the rooms and the hall are provided with a 32" HD Television adding to the comfort to watch the choice of each inmate. Though the shopping malls are around a vehicle to reach them is a must. The hotel which was providing free shuttle service to reach these places with drew it citing "great demand" for it and restricted the service to business purpose only. This decision needs to be reconsidered by the authorities, who are always eager to meet the requirements of the guests, since persons relocating would not have their cars delivered.  A small swimming pool meets the inmates need to relax. The complimentary vegetarian break fast and the fruits help you make a good beginning of the day. This is a place I would love to recommend...As we were relocating to Plano TX, we had the opportunity  to stay at the TownePlace suites . It was really a home away from home for our extended stay!!  The 19 days were spent in comfort. The place is calm and does not look like a hotel.  The suites were spacious, spick and span. There is plenty of space to walk and jog around with no traffic hassle.The ever smiling and greeting front desk staff and the maintenance crew are to be complimented,who do an excellent job . The suites have a kitchen with all necessities making daily cooking comfortable.  A rice cooker could add to the requirement. Both the rooms and the hall are provided with a 32" HD Television adding to the comfort to watch the choice of each inmate. Though the shopping malls are around a vehicle to reach them is a must. The hotel which was providing free shuttle service to reach these places with drew it citing "great demand" for it and restricted the service to business purpose only. This decision needs to be reconsidered by the authorities, who are always eager to meet the requirements of the guests, since persons relocating would not have their cars delivered.  A small swimming pool meets the inmates need to relax. The complimentary vegetarian break fast and the fruits help you make a good beginning of the day. This is a place I would love to recommend to every one as it has good pricing policy for longer stay as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>As we were relocating to Plano TX, we had the opportunity  to stay at the TownePlace suites . It was really a home away from home for our extended stay!!  The 19 days were spent in comfort. The place is calm and does not look like a hotel.  The suites were spacious, spick and span. There is plenty of space to walk and jog around with no traffic hassle.The ever smiling and greeting front desk staff and the maintenance crew are to be complimented,who do an excellent job . The suites have a kitchen with all necessities making daily cooking comfortable.  A rice cooker could add to the requirement. Both the rooms and the hall are provided with a 32" HD Television adding to the comfort to watch the choice of each inmate. Though the shopping malls are around a vehicle to reach them is a must. The hotel which was providing free shuttle service to reach these places with drew it citing "great demand" for it and restricted the service to business purpose only. This decision needs to be reconsidered by the authorities, who are always eager to meet the requirements of the guests, since persons relocating would not have their cars delivered.  A small swimming pool meets the inmates need to relax. The complimentary vegetarian break fast and the fruits help you make a good beginning of the day. This is a place I would love to recommend...As we were relocating to Plano TX, we had the opportunity  to stay at the TownePlace suites . It was really a home away from home for our extended stay!!  The 19 days were spent in comfort. The place is calm and does not look like a hotel.  The suites were spacious, spick and span. There is plenty of space to walk and jog around with no traffic hassle.The ever smiling and greeting front desk staff and the maintenance crew are to be complimented,who do an excellent job . The suites have a kitchen with all necessities making daily cooking comfortable.  A rice cooker could add to the requirement. Both the rooms and the hall are provided with a 32" HD Television adding to the comfort to watch the choice of each inmate. Though the shopping malls are around a vehicle to reach them is a must. The hotel which was providing free shuttle service to reach these places with drew it citing "great demand" for it and restricted the service to business purpose only. This decision needs to be reconsidered by the authorities, who are always eager to meet the requirements of the guests, since persons relocating would not have their cars delivered.  A small swimming pool meets the inmates need to relax. The complimentary vegetarian break fast and the fruits help you make a good beginning of the day. This is a place I would love to recommend to every one as it has good pricing policy for longer stay as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r94245988-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>94245988</t>
+  </si>
+  <si>
+    <t>01/24/2011</t>
+  </si>
+  <si>
+    <t>Nice place to live while in area for business</t>
+  </si>
+  <si>
+    <t>Spent two weeks here on a business trip.  Nice to stay in a place off the highway for a change, so no road noise at night.  Full kitchen even has an oven, great for actually cooking in a hotel.  Enjoyed having a HDtv that actually had HD service, even HDnet and HD theater channels in addition to three Showtimes.  Internet could be faster, but it's about the same as all hotel internet service anywhere...Friendly staff, nice fitness center and good breakfast.  Even offer fresh fruit in lobby for that healthy snack - free!</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r83854248-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>83854248</t>
+  </si>
+  <si>
+    <t>10/17/2010</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>I stayed at TownePlace Suites during an official visit in Sept10. I found the place really nice. The staff is really friendly and the rooms are nice spacious &amp; with kitchen. The hotel provides complimentory internet services and also provide free shuttle service upto 5 mile radius except on weekends.I would recommend this place to all the visiotrs who are looking for an extended stay and want to make sure that they are able to cook their own food. Although it also has some nice eating joints nearby. And the suttle service is even free utp Stonebriar mall, walmart, best buy etc. The only sad thing was that I could not find any nice clubs nearby, but that could be probably because I didnt search much.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>I stayed at TownePlace Suites during an official visit in Sept10. I found the place really nice. The staff is really friendly and the rooms are nice spacious &amp; with kitchen. The hotel provides complimentory internet services and also provide free shuttle service upto 5 mile radius except on weekends.I would recommend this place to all the visiotrs who are looking for an extended stay and want to make sure that they are able to cook their own food. Although it also has some nice eating joints nearby. And the suttle service is even free utp Stonebriar mall, walmart, best buy etc. The only sad thing was that I could not find any nice clubs nearby, but that could be probably because I didnt search much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r62649805-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>62649805</t>
+  </si>
+  <si>
+    <t>04/28/2010</t>
+  </si>
+  <si>
+    <t>Home away from Home feeling</t>
+  </si>
+  <si>
+    <t>My experience : I liked this place as it was in a very calm locality and well maintained. This does not look like a regular hotel and best suited for long stays. it gave me more of a home away from home feeling...Dos: Try and get the best bargain for the rooms on internet. They have special deals for long stays(more than 28 days). Ask for the shuttle service to go anywhere within a radius of 7 miles from the hotel. This helps to save on taxi bills. Donts : There are very few convenio shops or malls nearby. So, you need to rely on taxis or shuttle service for daily shopping. Best Value : This has a attached kitchenette making it convenient for daily cooking. The maids are freindly and do a through job of cleaning up the mess! the hotel offers free internet. the rooms were big enough for a family of 3 (or4).MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>My experience : I liked this place as it was in a very calm locality and well maintained. This does not look like a regular hotel and best suited for long stays. it gave me more of a home away from home feeling...Dos: Try and get the best bargain for the rooms on internet. They have special deals for long stays(more than 28 days). Ask for the shuttle service to go anywhere within a radius of 7 miles from the hotel. This helps to save on taxi bills. Donts : There are very few convenio shops or malls nearby. So, you need to rely on taxis or shuttle service for daily shopping. Best Value : This has a attached kitchenette making it convenient for daily cooking. The maids are freindly and do a through job of cleaning up the mess! the hotel offers free internet. the rooms were big enough for a family of 3 (or4).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r50596359-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>50596359</t>
+  </si>
+  <si>
+    <t>12/03/2009</t>
+  </si>
+  <si>
+    <t>Good value for money</t>
+  </si>
+  <si>
+    <t>I have stayed in couple of Towneplace Suites earlier but didn't like those hotels but this one at Plano is notch above the rest. I wanted to opt for Residence Inn which was adjacent to this hotel however the shuttle service which this hotel provides made me opt for this hotel. Also this hotel has kitchen, gym facilities.The other good thing was the compliementary breakfast service which I didn't had in other Towneplace Suites which I stayed earlier.Few areas where they can concentrate on improving would be:1. More breakfast options (Continental, etc)2. Newspaper option3. LCD TVs (Currently they have CRT and few of the channels don't come properly)</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r47102241-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>47102241</t>
+  </si>
+  <si>
+    <t>10/17/2009</t>
+  </si>
+  <si>
+    <t>SO AMAZING!!</t>
+  </si>
+  <si>
+    <t>I'm sitting in this hotel as we speak and it's incredible!  We're in the two bedroom suite and I have a refrigerator, oven, stove, dishwasher, toaster, microwave, coffee maker, iced tea, coffee, pots, pans, all the things I need to cook and enjoy the kitchen.  The bathroom is seperate, the bedrooms are seperate, there is a dining room table.  It's a corner unit so there are windows in each room.  I am just amazed by this hotel.  The front desk was SO nice too and allowed me to check in early so my son could take a nap.  I just LOVE this place!  I will be back and I encourage anyone to stay here!  It's AWESOME!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>I'm sitting in this hotel as we speak and it's incredible!  We're in the two bedroom suite and I have a refrigerator, oven, stove, dishwasher, toaster, microwave, coffee maker, iced tea, coffee, pots, pans, all the things I need to cook and enjoy the kitchen.  The bathroom is seperate, the bedrooms are seperate, there is a dining room table.  It's a corner unit so there are windows in each room.  I am just amazed by this hotel.  The front desk was SO nice too and allowed me to check in early so my son could take a nap.  I just LOVE this place!  I will be back and I encourage anyone to stay here!  It's AWESOME!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r22455809-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>22455809</t>
+  </si>
+  <si>
+    <t>12/04/2008</t>
+  </si>
+  <si>
+    <t>Liked the Towneplace hotel and service</t>
+  </si>
+  <si>
+    <t>TownePlace Suite at Plano, Texas is a nice Hotel and provide excellent service. I have to plano for a business trip and this hotel has been arranged for me by my company. The hotel has big room with kitchen. the services includes complimentary breakfast, shuttle service, internet, tv etc. The shuttle service was the most helpful as the city was new to me. Along with my office work, I enjoyed the trip and food at hotel. I if get a second chance to visit plano, I would be staying in same hotel</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r17091483-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>17091483</t>
+  </si>
+  <si>
+    <t>06/20/2008</t>
+  </si>
+  <si>
+    <t>Ok, some issues</t>
+  </si>
+  <si>
+    <t>Decent place.  Good location/   I always seemed to have to ask for things...  a 2nd soap (only had 1 when I checked in), more salt &amp; dishwasher tabs for kitchen...  more coffee after a couple of days.. seemed like they just cleaned (which was done OK, not great).  I dropped a magazine on the floor under the table, and I noticed iot still there after 3 days.....  Friendly office staff, but annoyed when after a market trip at the emd of a work day, neither of my card keys worked.   I was told, that it expired after 7 days....  WHY??  I was checked in for 2 weeks.  The room also had some plastic looking stain on the carpet and smelled a bit off, like old smoke just upon entering, but I didn;t notice after I was inside.Bed was clean and comfortable, bathroom clean with a decent showerAfter all this, you may ask, why 3 stars??   I have seen allot lately, and it's really a 2.5.. but I was told they are about to start renovations, building by building, so they are trying.MoreShow less</t>
+  </si>
+  <si>
+    <t>Decent place.  Good location/   I always seemed to have to ask for things...  a 2nd soap (only had 1 when I checked in), more salt &amp; dishwasher tabs for kitchen...  more coffee after a couple of days.. seemed like they just cleaned (which was done OK, not great).  I dropped a magazine on the floor under the table, and I noticed iot still there after 3 days.....  Friendly office staff, but annoyed when after a market trip at the emd of a work day, neither of my card keys worked.   I was told, that it expired after 7 days....  WHY??  I was checked in for 2 weeks.  The room also had some plastic looking stain on the carpet and smelled a bit off, like old smoke just upon entering, but I didn;t notice after I was inside.Bed was clean and comfortable, bathroom clean with a decent showerAfter all this, you may ask, why 3 stars??   I have seen allot lately, and it's really a 2.5.. but I was told they are about to start renovations, building by building, so they are trying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r16675494-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>16675494</t>
+  </si>
+  <si>
+    <t>06/04/2008</t>
+  </si>
+  <si>
+    <t>Paper Thin Walls</t>
+  </si>
+  <si>
+    <t>I stayed two nights. I could litterally hear every single thing my neighbor said--clearly. In other hotels I have stayed in, you might sometimes hear a muffled voices through the walls. But, I heard the neighbors clear as day. It was like they were in the same room I was.  They also stayed up all night talking, which made it more unpleasant since they were up when I was trying to sleep.Other than that, everything was great! It was clean, the front-desk staff were exceptionally nice and the area is safe. The complimentary breakfast is really just a room full of cheap eats. They have a waffle maker, cold cereal, the juice machine, bread/toast, and that's about it.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>I stayed two nights. I could litterally hear every single thing my neighbor said--clearly. In other hotels I have stayed in, you might sometimes hear a muffled voices through the walls. But, I heard the neighbors clear as day. It was like they were in the same room I was.  They also stayed up all night talking, which made it more unpleasant since they were up when I was trying to sleep.Other than that, everything was great! It was clean, the front-desk staff were exceptionally nice and the area is safe. The complimentary breakfast is really just a room full of cheap eats. They have a waffle maker, cold cereal, the juice machine, bread/toast, and that's about it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r14240719-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>14240719</t>
+  </si>
+  <si>
+    <t>03/12/2008</t>
+  </si>
+  <si>
+    <t>It's hard to complain!</t>
+  </si>
+  <si>
+    <t>Well, the TownePlace Suites in Plano is almost like our home away from home.  We usually stay here or at the Residence Inn which is right next door , when we come to the Dallas/Plano area.  We love the area.  We like to walk and the area around this property is very nice.  We feel very comfortable walking in this area.However - the property is becoming run down.  The bathroom, though clean, is looking worn.  The floor was stained. We have no complaints about the overall cleanliness of the room.  It is nice having a frig &amp; microwave.  We don't usually cook when we're there but the stove was clean but worn.  The dishwasher rack was caddywompus when we loaded our dirty glasses so my husband had to really work with it to get it back in.  My biggest complaint was that it was so WARM.  I never could get the room to cool down.  It's March for goodness sake! Too warm even with the AC on and fan running continuously.  This was my complaint the last time we were here in June of 2007.  We didn't eat breakfast there.  By the time we got down, there wasn't much left to choose from and it was VERY crowded.The biggest plus is the people.  All the employees are so friendly, helpful and nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>Well, the TownePlace Suites in Plano is almost like our home away from home.  We usually stay here or at the Residence Inn which is right next door , when we come to the Dallas/Plano area.  We love the area.  We like to walk and the area around this property is very nice.  We feel very comfortable walking in this area.However - the property is becoming run down.  The bathroom, though clean, is looking worn.  The floor was stained. We have no complaints about the overall cleanliness of the room.  It is nice having a frig &amp; microwave.  We don't usually cook when we're there but the stove was clean but worn.  The dishwasher rack was caddywompus when we loaded our dirty glasses so my husband had to really work with it to get it back in.  My biggest complaint was that it was so WARM.  I never could get the room to cool down.  It's March for goodness sake! Too warm even with the AC on and fan running continuously.  This was my complaint the last time we were here in June of 2007.  We didn't eat breakfast there.  By the time we got down, there wasn't much left to choose from and it was VERY crowded.The biggest plus is the people.  All the employees are so friendly, helpful and nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r5414297-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>5414297</t>
+  </si>
+  <si>
+    <t>06/30/2006</t>
+  </si>
+  <si>
+    <t>Pay for What You Get.....</t>
+  </si>
+  <si>
+    <t>We stayed at the TownePlace on July 1st and were quite disappointed having traveled around the country.    The outside is very attractive, but appearances can be deceiving.   The hall smelled like 10 styles of food as each room has a kitchen (it stunk).  Our room was not that clean -- stains on the carpet, floor, etc. and the towels were very cheap.  Our neighbor upstairs smoked and the smoke engulfed our room.  We heard his/her footsteps all night.   We understand they stay quite busy during the week but not so busy on the weekend.   The A/C works great....the high speed internet is not very fast -- unlike the new Hamptons, HI Express that we have stayed at -- they charge you for a faster high speed -- a rip-off.   Overall we would not recommend this hotel.  As I type this I can still hear the man pacing upstairs -- it is giving me a headache!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>We stayed at the TownePlace on July 1st and were quite disappointed having traveled around the country.    The outside is very attractive, but appearances can be deceiving.   The hall smelled like 10 styles of food as each room has a kitchen (it stunk).  Our room was not that clean -- stains on the carpet, floor, etc. and the towels were very cheap.  Our neighbor upstairs smoked and the smoke engulfed our room.  We heard his/her footsteps all night.   We understand they stay quite busy during the week but not so busy on the weekend.   The A/C works great....the high speed internet is not very fast -- unlike the new Hamptons, HI Express that we have stayed at -- they charge you for a faster high speed -- a rip-off.   Overall we would not recommend this hotel.  As I type this I can still hear the man pacing upstairs -- it is giving me a headache!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r5182001-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>5182001</t>
+  </si>
+  <si>
+    <t>05/18/2006</t>
+  </si>
+  <si>
+    <t>Great value for money.</t>
+  </si>
+  <si>
+    <t>I spent 8 nights here in early May and can say that for the price it is great value for money. A bit more detail….. 
+To start with you may need a good map to find this hotel. It is tucked away behind its big brother, the Residence Inn, off Preston. Look out for the 7/11.
+The check-in was painless and quick, great considering I had just arrived at the hotel after a 12 hour flight from the UK. The room (1 bed studio suite) was spacious, bright, airy and spotlessly clean. It had everything you need for your stay, including sofa, easy chair, table and chairs etc and a fully equipped kitchen including cooker, dishwasher, microwave but no kettle or teapot. There was plenty of drawer and closet space. The bed was very comfortable with fresh crisp linen and extra pillows. The maid service was excellent. Every day when I came back to the room it was just as it was the day I first arrived. 
+The breakfast room could be very busy first thing with business people grabbing a bite to eat before work but after this there was plenty of space. There was a plentiful supply and quite a good choice of food but, just as I felt a few different items would be welcome, there were new dishes on Tuesdays and Thursday. The room was well managed and all areas were kept clean and tidy.
+The...I spent 8 nights here in early May and can say that for the price it is great value for money. A bit more detail….. To start with you may need a good map to find this hotel. It is tucked away behind its big brother, the Residence Inn, off Preston. Look out for the 7/11.The check-in was painless and quick, great considering I had just arrived at the hotel after a 12 hour flight from the UK. The room (1 bed studio suite) was spacious, bright, airy and spotlessly clean. It had everything you need for your stay, including sofa, easy chair, table and chairs etc and a fully equipped kitchen including cooker, dishwasher, microwave but no kettle or teapot. There was plenty of drawer and closet space. The bed was very comfortable with fresh crisp linen and extra pillows. The maid service was excellent. Every day when I came back to the room it was just as it was the day I first arrived. The breakfast room could be very busy first thing with business people grabbing a bite to eat before work but after this there was plenty of space. There was a plentiful supply and quite a good choice of food but, just as I felt a few different items would be welcome, there were new dishes on Tuesdays and Thursday. The room was well managed and all areas were kept clean and tidy.The pool area seems cramped at first but as this is not a resort area there were only a few people using this facility. There is a laundry and fitness room both are adequate and all the equipment seemed in good order. Front desk staff were very friendly and helpful throughout. All of my varied requests for directions etc. were answered eagerly and politely. All information provided was accurate. The reception area, although quite small, has fresh tea/coffee available, newspapers and magazines, a big television and best of all a free high speed Internet connected PC with printer. Main drawback - There are no restaurants within easy walking distance, but this is Texas and nobody walks.I would have no hesitation about going back.MoreShow less</t>
+  </si>
+  <si>
+    <t>I spent 8 nights here in early May and can say that for the price it is great value for money. A bit more detail….. 
+To start with you may need a good map to find this hotel. It is tucked away behind its big brother, the Residence Inn, off Preston. Look out for the 7/11.
+The check-in was painless and quick, great considering I had just arrived at the hotel after a 12 hour flight from the UK. The room (1 bed studio suite) was spacious, bright, airy and spotlessly clean. It had everything you need for your stay, including sofa, easy chair, table and chairs etc and a fully equipped kitchen including cooker, dishwasher, microwave but no kettle or teapot. There was plenty of drawer and closet space. The bed was very comfortable with fresh crisp linen and extra pillows. The maid service was excellent. Every day when I came back to the room it was just as it was the day I first arrived. 
+The breakfast room could be very busy first thing with business people grabbing a bite to eat before work but after this there was plenty of space. There was a plentiful supply and quite a good choice of food but, just as I felt a few different items would be welcome, there were new dishes on Tuesdays and Thursday. The room was well managed and all areas were kept clean and tidy.
+The...I spent 8 nights here in early May and can say that for the price it is great value for money. A bit more detail….. To start with you may need a good map to find this hotel. It is tucked away behind its big brother, the Residence Inn, off Preston. Look out for the 7/11.The check-in was painless and quick, great considering I had just arrived at the hotel after a 12 hour flight from the UK. The room (1 bed studio suite) was spacious, bright, airy and spotlessly clean. It had everything you need for your stay, including sofa, easy chair, table and chairs etc and a fully equipped kitchen including cooker, dishwasher, microwave but no kettle or teapot. There was plenty of drawer and closet space. The bed was very comfortable with fresh crisp linen and extra pillows. The maid service was excellent. Every day when I came back to the room it was just as it was the day I first arrived. The breakfast room could be very busy first thing with business people grabbing a bite to eat before work but after this there was plenty of space. There was a plentiful supply and quite a good choice of food but, just as I felt a few different items would be welcome, there were new dishes on Tuesdays and Thursday. The room was well managed and all areas were kept clean and tidy.The pool area seems cramped at first but as this is not a resort area there were only a few people using this facility. There is a laundry and fitness room both are adequate and all the equipment seemed in good order. Front desk staff were very friendly and helpful throughout. All of my varied requests for directions etc. were answered eagerly and politely. All information provided was accurate. The reception area, although quite small, has fresh tea/coffee available, newspapers and magazines, a big television and best of all a free high speed Internet connected PC with printer. Main drawback - There are no restaurants within easy walking distance, but this is Texas and nobody walks.I would have no hesitation about going back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r4823856-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>4823856</t>
+  </si>
+  <si>
+    <t>03/30/2006</t>
+  </si>
+  <si>
+    <t>Will definitely come back</t>
+  </si>
+  <si>
+    <t>I have just returned from a 5-night stay at this hotel and must say I'm pleased. The location was perfect for me: close to everywhere I wanted to go, but still 'remote' enough to be quiet and feel safe, which is what I like when traveling alone. I think it's also kinda cute-looking from the outside, which gives you a certain cosy feeling. 
+Unfortunately I didn't sleep well the third night, because a hockey team AND a wedding party had arrived. When I reluctantly went to the front desk and told the manager the next morning (I'm not too good at complaining), she gave me a hug, arranged for me to have another room in the other building and did not charge this night. I have never before had this kind of service and am very impressed. 
+There were a few details I wasn't too pleased with: the AC in the bathroom and the fridge make a lot of noise (solved by turning off the bathroom light and unplugging the fridge) and the breakfast was fairly simple. 
+I have not used any of the appliances since I was only staying for a couple of nights, but I would if I had stayed longer, and having a kitchen, a dining table and a couch do add to that cosy feeling.
+I'm not used to hotels NOT charging seperately for breakfast, parking and internet, so combined with the  level of service, cleanliness...I have just returned from a 5-night stay at this hotel and must say I'm pleased. The location was perfect for me: close to everywhere I wanted to go, but still 'remote' enough to be quiet and feel safe, which is what I like when traveling alone. I think it's also kinda cute-looking from the outside, which gives you a certain cosy feeling. Unfortunately I didn't sleep well the third night, because a hockey team AND a wedding party had arrived. When I reluctantly went to the front desk and told the manager the next morning (I'm not too good at complaining), she gave me a hug, arranged for me to have another room in the other building and did not charge this night. I have never before had this kind of service and am very impressed. There were a few details I wasn't too pleased with: the AC in the bathroom and the fridge make a lot of noise (solved by turning off the bathroom light and unplugging the fridge) and the breakfast was fairly simple. I have not used any of the appliances since I was only staying for a couple of nights, but I would if I had stayed longer, and having a kitchen, a dining table and a couch do add to that cosy feeling.I'm not used to hotels NOT charging seperately for breakfast, parking and internet, so combined with the  level of service, cleanliness and friendliness I think the value for money is great. Together with some great memories that were created during this trip and even in this room :-), the hotel made my stay very nice and should I be given the opportunity to return, I will book this hotel again straight away.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have just returned from a 5-night stay at this hotel and must say I'm pleased. The location was perfect for me: close to everywhere I wanted to go, but still 'remote' enough to be quiet and feel safe, which is what I like when traveling alone. I think it's also kinda cute-looking from the outside, which gives you a certain cosy feeling. 
+Unfortunately I didn't sleep well the third night, because a hockey team AND a wedding party had arrived. When I reluctantly went to the front desk and told the manager the next morning (I'm not too good at complaining), she gave me a hug, arranged for me to have another room in the other building and did not charge this night. I have never before had this kind of service and am very impressed. 
+There were a few details I wasn't too pleased with: the AC in the bathroom and the fridge make a lot of noise (solved by turning off the bathroom light and unplugging the fridge) and the breakfast was fairly simple. 
+I have not used any of the appliances since I was only staying for a couple of nights, but I would if I had stayed longer, and having a kitchen, a dining table and a couch do add to that cosy feeling.
+I'm not used to hotels NOT charging seperately for breakfast, parking and internet, so combined with the  level of service, cleanliness...I have just returned from a 5-night stay at this hotel and must say I'm pleased. The location was perfect for me: close to everywhere I wanted to go, but still 'remote' enough to be quiet and feel safe, which is what I like when traveling alone. I think it's also kinda cute-looking from the outside, which gives you a certain cosy feeling. Unfortunately I didn't sleep well the third night, because a hockey team AND a wedding party had arrived. When I reluctantly went to the front desk and told the manager the next morning (I'm not too good at complaining), she gave me a hug, arranged for me to have another room in the other building and did not charge this night. I have never before had this kind of service and am very impressed. There were a few details I wasn't too pleased with: the AC in the bathroom and the fridge make a lot of noise (solved by turning off the bathroom light and unplugging the fridge) and the breakfast was fairly simple. I have not used any of the appliances since I was only staying for a couple of nights, but I would if I had stayed longer, and having a kitchen, a dining table and a couch do add to that cosy feeling.I'm not used to hotels NOT charging seperately for breakfast, parking and internet, so combined with the  level of service, cleanliness and friendliness I think the value for money is great. Together with some great memories that were created during this trip and even in this room :-), the hotel made my stay very nice and should I be given the opportunity to return, I will book this hotel again straight away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r3754699-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>3754699</t>
+  </si>
+  <si>
+    <t>08/10/2005</t>
+  </si>
+  <si>
+    <t>Wonderful stay!</t>
+  </si>
+  <si>
+    <t>I knew that Towneplace suites are normally for extended stays but I’ve always liked them so I stayed at this one for just two nights. As it turns out, it’s as equally good for a two day stay as it is for a two week stay. My sister and I live about 3 hours from here but we like to go on summer shopping trips and we always hit up the Shops at Legacy. This year we decided to stay here because it’s so close to IKEA and we also wanted to shop there. The staff was great and always willing to answer any questions we had and take care of all of our problems. It was a wonderful stop on our shopping spree and a great hotel to choose!MoreShow less</t>
+  </si>
+  <si>
+    <t>I knew that Towneplace suites are normally for extended stays but I’ve always liked them so I stayed at this one for just two nights. As it turns out, it’s as equally good for a two day stay as it is for a two week stay. My sister and I live about 3 hours from here but we like to go on summer shopping trips and we always hit up the Shops at Legacy. This year we decided to stay here because it’s so close to IKEA and we also wanted to shop there. The staff was great and always willing to answer any questions we had and take care of all of our problems. It was a wonderful stop on our shopping spree and a great hotel to choose!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2360,4862 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>118</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>138</v>
+      </c>
+      <c r="X14" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>118</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>153</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>160</v>
+      </c>
+      <c r="X17" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>176</v>
+      </c>
+      <c r="X19" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>185</v>
+      </c>
+      <c r="X20" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>193</v>
+      </c>
+      <c r="O21" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>194</v>
+      </c>
+      <c r="X21" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s">
+        <v>201</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>202</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>203</v>
+      </c>
+      <c r="X22" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>211</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>212</v>
+      </c>
+      <c r="X23" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s">
+        <v>219</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>211</v>
+      </c>
+      <c r="O24" t="s">
+        <v>118</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>220</v>
+      </c>
+      <c r="X24" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>228</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>229</v>
+      </c>
+      <c r="X25" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J26" t="s">
+        <v>234</v>
+      </c>
+      <c r="K26" t="s">
+        <v>235</v>
+      </c>
+      <c r="L26" t="s">
+        <v>236</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>237</v>
+      </c>
+      <c r="O26" t="s">
+        <v>118</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>238</v>
+      </c>
+      <c r="X26" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" t="s">
+        <v>243</v>
+      </c>
+      <c r="K27" t="s">
+        <v>244</v>
+      </c>
+      <c r="L27" t="s">
+        <v>245</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>246</v>
+      </c>
+      <c r="O27" t="s">
+        <v>78</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>247</v>
+      </c>
+      <c r="X27" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>255</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>256</v>
+      </c>
+      <c r="X28" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L29" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>264</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>265</v>
+      </c>
+      <c r="X29" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>269</v>
+      </c>
+      <c r="J30" t="s">
+        <v>270</v>
+      </c>
+      <c r="K30" t="s">
+        <v>271</v>
+      </c>
+      <c r="L30" t="s">
+        <v>272</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>273</v>
+      </c>
+      <c r="O30" t="s">
+        <v>118</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>274</v>
+      </c>
+      <c r="X30" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" t="s">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s">
+        <v>281</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>264</v>
+      </c>
+      <c r="O31" t="s">
+        <v>118</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>274</v>
+      </c>
+      <c r="X31" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>284</v>
+      </c>
+      <c r="J32" t="s">
+        <v>285</v>
+      </c>
+      <c r="K32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s">
+        <v>287</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>273</v>
+      </c>
+      <c r="O32" t="s">
+        <v>118</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>288</v>
+      </c>
+      <c r="X32" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>292</v>
+      </c>
+      <c r="J33" t="s">
+        <v>293</v>
+      </c>
+      <c r="K33" t="s">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s">
+        <v>295</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>296</v>
+      </c>
+      <c r="O33" t="s">
+        <v>118</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>297</v>
+      </c>
+      <c r="X33" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>300</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>301</v>
+      </c>
+      <c r="J34" t="s">
+        <v>302</v>
+      </c>
+      <c r="K34" t="s">
+        <v>303</v>
+      </c>
+      <c r="L34" t="s">
+        <v>304</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>305</v>
+      </c>
+      <c r="O34" t="s">
+        <v>118</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>306</v>
+      </c>
+      <c r="X34" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>310</v>
+      </c>
+      <c r="J35" t="s">
+        <v>311</v>
+      </c>
+      <c r="K35" t="s">
+        <v>312</v>
+      </c>
+      <c r="L35" t="s">
+        <v>313</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>314</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>315</v>
+      </c>
+      <c r="X35" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>318</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>319</v>
+      </c>
+      <c r="J36" t="s">
+        <v>320</v>
+      </c>
+      <c r="K36" t="s">
+        <v>321</v>
+      </c>
+      <c r="L36" t="s">
+        <v>322</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>314</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>323</v>
+      </c>
+      <c r="X36" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>326</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>327</v>
+      </c>
+      <c r="J37" t="s">
+        <v>328</v>
+      </c>
+      <c r="K37" t="s">
+        <v>329</v>
+      </c>
+      <c r="L37" t="s">
+        <v>330</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>331</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>332</v>
+      </c>
+      <c r="X37" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>334</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>335</v>
+      </c>
+      <c r="J38" t="s">
+        <v>336</v>
+      </c>
+      <c r="K38" t="s">
+        <v>337</v>
+      </c>
+      <c r="L38" t="s">
+        <v>338</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>339</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>340</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>341</v>
+      </c>
+      <c r="J39" t="s">
+        <v>342</v>
+      </c>
+      <c r="K39" t="s">
+        <v>343</v>
+      </c>
+      <c r="L39" t="s">
+        <v>344</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>345</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>347</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>348</v>
+      </c>
+      <c r="J40" t="s">
+        <v>349</v>
+      </c>
+      <c r="K40" t="s">
+        <v>350</v>
+      </c>
+      <c r="L40" t="s">
+        <v>351</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>352</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>353</v>
+      </c>
+      <c r="X40" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>357</v>
+      </c>
+      <c r="J41" t="s">
+        <v>358</v>
+      </c>
+      <c r="K41" t="s">
+        <v>359</v>
+      </c>
+      <c r="L41" t="s">
+        <v>360</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>361</v>
+      </c>
+      <c r="O41" t="s">
+        <v>118</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>362</v>
+      </c>
+      <c r="X41" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>365</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>366</v>
+      </c>
+      <c r="J42" t="s">
+        <v>367</v>
+      </c>
+      <c r="K42" t="s">
+        <v>368</v>
+      </c>
+      <c r="L42" t="s">
+        <v>369</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>361</v>
+      </c>
+      <c r="O42" t="s">
+        <v>153</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>370</v>
+      </c>
+      <c r="X42" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>373</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>374</v>
+      </c>
+      <c r="J43" t="s">
+        <v>375</v>
+      </c>
+      <c r="K43" t="s">
+        <v>376</v>
+      </c>
+      <c r="L43" t="s">
+        <v>377</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>378</v>
+      </c>
+      <c r="O43" t="s">
+        <v>78</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>379</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>380</v>
+      </c>
+      <c r="J44" t="s">
+        <v>381</v>
+      </c>
+      <c r="K44" t="s">
+        <v>382</v>
+      </c>
+      <c r="L44" t="s">
+        <v>383</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>384</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>385</v>
+      </c>
+      <c r="X44" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>388</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>389</v>
+      </c>
+      <c r="J45" t="s">
+        <v>390</v>
+      </c>
+      <c r="K45" t="s">
+        <v>391</v>
+      </c>
+      <c r="L45" t="s">
+        <v>392</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>384</v>
+      </c>
+      <c r="O45" t="s">
+        <v>118</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>394</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>395</v>
+      </c>
+      <c r="J46" t="s">
+        <v>396</v>
+      </c>
+      <c r="K46" t="s">
+        <v>397</v>
+      </c>
+      <c r="L46" t="s">
+        <v>398</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>384</v>
+      </c>
+      <c r="O46" t="s">
+        <v>118</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>400</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>401</v>
+      </c>
+      <c r="J47" t="s">
+        <v>402</v>
+      </c>
+      <c r="K47" t="s">
+        <v>403</v>
+      </c>
+      <c r="L47" t="s">
+        <v>404</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>405</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>406</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>407</v>
+      </c>
+      <c r="J48" t="s">
+        <v>408</v>
+      </c>
+      <c r="K48" t="s">
+        <v>409</v>
+      </c>
+      <c r="L48" t="s">
+        <v>410</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>411</v>
+      </c>
+      <c r="O48" t="s">
+        <v>118</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>412</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>413</v>
+      </c>
+      <c r="J49" t="s">
+        <v>414</v>
+      </c>
+      <c r="K49" t="s">
+        <v>415</v>
+      </c>
+      <c r="L49" t="s">
+        <v>416</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>417</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>418</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>419</v>
+      </c>
+      <c r="J50" t="s">
+        <v>420</v>
+      </c>
+      <c r="K50" t="s">
+        <v>421</v>
+      </c>
+      <c r="L50" t="s">
+        <v>422</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>423</v>
+      </c>
+      <c r="O50" t="s">
+        <v>118</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>424</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>425</v>
+      </c>
+      <c r="J51" t="s">
+        <v>426</v>
+      </c>
+      <c r="K51" t="s">
+        <v>427</v>
+      </c>
+      <c r="L51" t="s">
+        <v>428</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>429</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>430</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>431</v>
+      </c>
+      <c r="J52" t="s">
+        <v>426</v>
+      </c>
+      <c r="K52" t="s">
+        <v>432</v>
+      </c>
+      <c r="L52" t="s">
+        <v>433</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>429</v>
+      </c>
+      <c r="O52" t="s">
+        <v>118</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>435</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>436</v>
+      </c>
+      <c r="J53" t="s">
+        <v>437</v>
+      </c>
+      <c r="K53" t="s">
+        <v>438</v>
+      </c>
+      <c r="L53" t="s">
+        <v>439</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>440</v>
+      </c>
+      <c r="O53" t="s">
+        <v>78</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>441</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>442</v>
+      </c>
+      <c r="J54" t="s">
+        <v>443</v>
+      </c>
+      <c r="K54" t="s">
+        <v>444</v>
+      </c>
+      <c r="L54" t="s">
+        <v>445</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>440</v>
+      </c>
+      <c r="O54" t="s">
+        <v>118</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>447</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>448</v>
+      </c>
+      <c r="J55" t="s">
+        <v>449</v>
+      </c>
+      <c r="K55" t="s">
+        <v>450</v>
+      </c>
+      <c r="L55" t="s">
+        <v>451</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>452</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>453</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>454</v>
+      </c>
+      <c r="J56" t="s">
+        <v>455</v>
+      </c>
+      <c r="K56" t="s">
+        <v>456</v>
+      </c>
+      <c r="L56" t="s">
+        <v>457</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>458</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>459</v>
+      </c>
+      <c r="J57" t="s">
+        <v>460</v>
+      </c>
+      <c r="K57" t="s">
+        <v>461</v>
+      </c>
+      <c r="L57" t="s">
+        <v>462</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>463</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>465</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>466</v>
+      </c>
+      <c r="J58" t="s">
+        <v>467</v>
+      </c>
+      <c r="K58" t="s">
+        <v>468</v>
+      </c>
+      <c r="L58" t="s">
+        <v>469</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>470</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>472</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>473</v>
+      </c>
+      <c r="J59" t="s">
+        <v>474</v>
+      </c>
+      <c r="K59" t="s">
+        <v>475</v>
+      </c>
+      <c r="L59" t="s">
+        <v>476</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>477</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>479</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>480</v>
+      </c>
+      <c r="J60" t="s">
+        <v>481</v>
+      </c>
+      <c r="K60" t="s">
+        <v>482</v>
+      </c>
+      <c r="L60" t="s">
+        <v>483</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>484</v>
+      </c>
+      <c r="O60" t="s">
+        <v>485</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>486</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>487</v>
+      </c>
+      <c r="J61" t="s">
+        <v>488</v>
+      </c>
+      <c r="K61" t="s">
+        <v>39</v>
+      </c>
+      <c r="L61" t="s">
+        <v>489</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>490</v>
+      </c>
+      <c r="O61" t="s">
+        <v>118</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>492</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>493</v>
+      </c>
+      <c r="J62" t="s">
+        <v>494</v>
+      </c>
+      <c r="K62" t="s">
+        <v>495</v>
+      </c>
+      <c r="L62" t="s">
+        <v>496</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>497</v>
+      </c>
+      <c r="O62" t="s">
+        <v>118</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>498</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>499</v>
+      </c>
+      <c r="J63" t="s">
+        <v>500</v>
+      </c>
+      <c r="K63" t="s">
+        <v>501</v>
+      </c>
+      <c r="L63" t="s">
+        <v>502</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>503</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>505</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>506</v>
+      </c>
+      <c r="J64" t="s">
+        <v>507</v>
+      </c>
+      <c r="K64" t="s">
+        <v>508</v>
+      </c>
+      <c r="L64" t="s">
+        <v>509</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>510</v>
+      </c>
+      <c r="O64" t="s">
+        <v>118</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>512</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>513</v>
+      </c>
+      <c r="J65" t="s">
+        <v>514</v>
+      </c>
+      <c r="K65" t="s">
+        <v>515</v>
+      </c>
+      <c r="L65" t="s">
+        <v>516</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>517</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>518</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>519</v>
+      </c>
+      <c r="J66" t="s">
+        <v>520</v>
+      </c>
+      <c r="K66" t="s">
+        <v>521</v>
+      </c>
+      <c r="L66" t="s">
+        <v>522</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>523</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>525</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>526</v>
+      </c>
+      <c r="J67" t="s">
+        <v>527</v>
+      </c>
+      <c r="K67" t="s">
+        <v>528</v>
+      </c>
+      <c r="L67" t="s">
+        <v>529</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>530</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>532</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>533</v>
+      </c>
+      <c r="J68" t="s">
+        <v>534</v>
+      </c>
+      <c r="K68" t="s">
+        <v>535</v>
+      </c>
+      <c r="L68" t="s">
+        <v>536</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>537</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>538</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>539</v>
+      </c>
+      <c r="J69" t="s">
+        <v>540</v>
+      </c>
+      <c r="K69" t="s">
+        <v>541</v>
+      </c>
+      <c r="L69" t="s">
+        <v>542</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>543</v>
+      </c>
+      <c r="O69" t="s">
+        <v>118</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>545</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>546</v>
+      </c>
+      <c r="J70" t="s">
+        <v>547</v>
+      </c>
+      <c r="K70" t="s">
+        <v>548</v>
+      </c>
+      <c r="L70" t="s">
+        <v>549</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>550</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>551</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>552</v>
+      </c>
+      <c r="J71" t="s">
+        <v>553</v>
+      </c>
+      <c r="K71" t="s">
+        <v>554</v>
+      </c>
+      <c r="L71" t="s">
+        <v>555</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>557</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>558</v>
+      </c>
+      <c r="J72" t="s">
+        <v>559</v>
+      </c>
+      <c r="K72" t="s">
+        <v>560</v>
+      </c>
+      <c r="L72" t="s">
+        <v>561</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>562</v>
+      </c>
+      <c r="O72" t="s">
+        <v>118</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>564</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>565</v>
+      </c>
+      <c r="J73" t="s">
+        <v>566</v>
+      </c>
+      <c r="K73" t="s">
+        <v>567</v>
+      </c>
+      <c r="L73" t="s">
+        <v>568</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>569</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>571</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>572</v>
+      </c>
+      <c r="J74" t="s">
+        <v>573</v>
+      </c>
+      <c r="K74" t="s">
+        <v>574</v>
+      </c>
+      <c r="L74" t="s">
+        <v>575</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>576</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>578</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>579</v>
+      </c>
+      <c r="J75" t="s">
+        <v>580</v>
+      </c>
+      <c r="K75" t="s">
+        <v>581</v>
+      </c>
+      <c r="L75" t="s">
+        <v>582</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>584</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>585</v>
+      </c>
+      <c r="J76" t="s">
+        <v>586</v>
+      </c>
+      <c r="K76" t="s">
+        <v>587</v>
+      </c>
+      <c r="L76" t="s">
+        <v>588</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>38549</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>590</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>591</v>
+      </c>
+      <c r="J77" t="s">
+        <v>592</v>
+      </c>
+      <c r="K77" t="s">
+        <v>593</v>
+      </c>
+      <c r="L77" t="s">
+        <v>594</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>595</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_764.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_764.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="672">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>marcia t</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Kenneth K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r569788116-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>Ricky S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r569396482-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t xml:space="preserve">No place like home, but Norma and team at TownePlace Suites do a great job making my stay comfortable!  Very reasonable rates and access to the thriving areas of Plano and Frisco offering a wide variety of restaurants and shops.  </t>
   </si>
   <si>
+    <t>5umedh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r568166422-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>I stayed here for 2 weeks and planning to stay here for another week. I love the hospitality here. The rooms are kept clean. The issues if any are resolved as quickly as they can be.Norma and Marcella particularly were like the best of staff members. Helpful. Courteous. Friendly.Hopefully l’ll stay here again in future. Cheers!More</t>
   </si>
   <si>
+    <t>carolinar588</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r565458705-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>We stayed at this hotel because we’ve been impressed with other Townplace hotels in other cities. However, this hotel is older and needs to be updated. Also, we had our pets with us and there isn’t hardly any grass for them to do their business. My recommendation would be to post a poo bag where it’s ok to take our pets. And definitely needs outdoor lighting in the parking lot. Room was clean but just felt musty. More</t>
   </si>
   <si>
+    <t>Will T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r562201192-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -289,6 +307,9 @@
   </si>
   <si>
     <t>Great and really friendly staff, here; always made my day.  The room was large, but sometimes noisy, but it got the job done for business travel.  Easily accessible to major freeways and shopping, as well, including lots of grocery stores.More</t>
+  </si>
+  <si>
+    <t>John S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r528984349-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
@@ -324,6 +345,9 @@
 After an evening of phone calls trying to track down my poor associates (who were at 2 other properties) I went to bed at 3am. The following morning after sincere apologies by me, I found out their ID was not even checked at arrival. 2 rooms were filled by ONE person (they were two bedroom suites) and one of the rooms was filled by the other 2. Essentially,...Odd that as I sign in to leave a review I see a few others with the same feedback. Marriot is a fantastic brand, their service level is usually impeccable which is why as a Platinum Premier member I have over 1000 nights at their hotels.I booked 4 rooms for a large party at this location. I took it upon myself to have someone stop by the hotel the morning of the check ins to ensure my team was going to be accommodated and that all the logistics were handled. I left a room list, credit card authorization and even prechecked into the rooms using my mobile app.I had a flight back into Dallas which landed at midnight, and I had the meeting at 8am the next day. When I landed, messages flooded my phone that the hotel "did not have rooms" and that my team "had to find alternative rooming". How did this happen when I spoke to the GM personally that morning and the rooms were even PREPAID?After an evening of phone calls trying to track down my poor associates (who were at 2 other properties) I went to bed at 3am. The following morning after sincere apologies by me, I found out their ID was not even checked at arrival. 2 rooms were filled by ONE person (they were two bedroom suites) and one of the rooms was filled by the other 2. Essentially, 3 of my associates were walked for NO REASON and the 4th room was occupied by someone I do not even know..At this point I am not upset by the mistake but the extreme sense of indifference and lack of professionalism by this management team. Even after 4 different calls, this GM fails to communicate with me. You have been warned, if an issue arises, don't expect the GM or anyone else to support youMore</t>
   </si>
   <si>
+    <t>Dawn S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r526417205-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -340,6 +364,9 @@
   </si>
   <si>
     <t>I went to Plano for business, and this hotel was the closest within our allowed price range.  I was there for a few days, so I like the suite setting.  This room had a king bed, a sofa bed, a table with 1 chair (I assume you could ask for another), and a full kitchen.  The kitchen had a small 4 burner range, small (but not compact) fridge, microwave, dishwasher, toaster, coffee pot, and pots &amp; pans, plates, utensils, etc.  I did not cook but the kitchen is a nice convenience.  The coil burners were all askew.  The room was clean and the staff was friendly.  The location was convenient.More</t>
+  </si>
+  <si>
+    <t>Jnjtiger</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r524968344-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
@@ -360,6 +387,9 @@
   <si>
     <t>Positives - room was fine, actually one of the best "suite" hotels I have been in. Small but certainly adequate. Full kitchen items, so easy to get food in and prepare. There is a 7-11 literally around the corner. Not well stocked, but there. Nothing else in the immediate area with food. In the world of UBER, you are pretty isolated here. 
 Odd parts. Basically located next door to a Residence Inn, another "suite" type facility and also Marriott. Guess Towneplace less expensive, but odd co-location. Tiny breakfast room. I really did not know they offered breakfast, not mentioned when I checked in, but could not even get in the room when I passed it in the morning. Filled with only 5 people.  Lobby area also odd. No clear "front door" - there are two ways into "lobby". Lobby also appears to have some items for sale, but shelves were basically bare. Not very inviting when your cooler has something like two bottles of soda for sale. Also lobby was very dark and pretty "uninviting". Check-in person was fine, no greeting, but that is now standard operating procedure in the inhospitable "hospitality" industry.  Not that far from DFW, about 20 minutes or so. If you have to be in this area - and it is an area literally booming with Dr Pepper and Toyota - this is a good, economical location with a fine sleeping room. Someone could just make...Positives - room was fine, actually one of the best "suite" hotels I have been in. Small but certainly adequate. Full kitchen items, so easy to get food in and prepare. There is a 7-11 literally around the corner. Not well stocked, but there. Nothing else in the immediate area with food. In the world of UBER, you are pretty isolated here. Odd parts. Basically located next door to a Residence Inn, another "suite" type facility and also Marriott. Guess Towneplace less expensive, but odd co-location. Tiny breakfast room. I really did not know they offered breakfast, not mentioned when I checked in, but could not even get in the room when I passed it in the morning. Filled with only 5 people.  Lobby area also odd. No clear "front door" - there are two ways into "lobby". Lobby also appears to have some items for sale, but shelves were basically bare. Not very inviting when your cooler has something like two bottles of soda for sale. Also lobby was very dark and pretty "uninviting". Check-in person was fine, no greeting, but that is now standard operating procedure in the inhospitable "hospitality" industry.  Not that far from DFW, about 20 minutes or so. If you have to be in this area - and it is an area literally booming with Dr Pepper and Toyota - this is a good, economical location with a fine sleeping room. Someone could just make this about two notches higher with minimal effort.More</t>
+  </si>
+  <si>
+    <t>Jenny R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r519702309-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
@@ -392,6 +422,9 @@
 The two bedroom suite worked very well for our...During Hurricane Harvey my family and I needed to stay a few nights in Dallas to avoid returning to Houston. We made a reservation for two nights but ended up staying four. During this extended stay the staff made this unexpected stay a very pleasant one. The manager at the front desk always greeted us with a smile and was very forward-thinking in helping us extend our stay beyond our plans so that we didn't get stuck without a room. Although we planned to check out and didn't three days in a row, the staff was helpful in cleaning our room when requested. The front desk attendant even came to bring towels and extra soap one day after the regular housekeeping staff had left. The women who prepped and managed the breakfast room were friendly and worked very hard to keep the area stocked even when family after family descended upon the area. The eating area is very, very small (only four tables) and congested but the breakfast selection is very good, despite the small space. There were two washing machines and two dryers provided for use ($1 wash, $1.25 dry). Detergent and softener were available to purchase. The machines needed some repair. The washing machines washed everything in hot and one dryer did not dry completely. When this was mentioned to the staff, they were quick to refund my money.The two bedroom suite worked very well for our family as our little children did not mind the extremely lumpy fold-out sofa bed. I wouldn't recommend it for older children or adults. However, the beds in the bedrooms were comfortable and the kitchen was surprisingly well-stocked with kitchen cookware, cutlery, serving ware and even salt and pepper. The suite, including the kitchen, was clean.The division of the toilet and shower from the vanity in the bathroom allowed all six of us to use the facilities without too much waiting.Overall, this hotel provides exactly what it advertises and the staff makes it all even more pleasant.More</t>
   </si>
   <si>
+    <t>Tony C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r513840940-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -407,6 +440,9 @@
     <t xml:space="preserve">This was my first visit to the Plano area and this hotel was in a perfect  location to a number of restaurants. There were petty within walking distance. Location to Toyota is great The hotel staff were great and fitness area was good just like others in TownePlace Suites. I would recommend based on my stay. </t>
   </si>
   <si>
+    <t>jadagli</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r505277158-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -428,6 +464,9 @@
     <t>Hotel personnel were more than accommodating.  Provided everything that was asked for.  Hotel was clean and well maintained.  Seemed to have been a renovated apartment complex bldg. as the gps listed the address as Waterwood Apartments.  The sofa that made into a bed needed to be rep[laced as it was not any too comfortable.  The complimentary breakfast was nice, waffles and pancake or croissant, sausage and egg with chees, coffee, a variety of juices, cereals, milk, two different type of yogurt, bagels, and muffins.  Nice job.  Downside was an icemaker that had to service too large of an area and was either low or making ice most of the time there.  That could have been that a large number of guests were there for the tourney and were filling their coolers for the game...myself included.  Our a/c unit was an older Amana, but worked great.  Outside was between 95 and 100 degrees and the room stayed around 70.  No complaints.  Again the staff was really nice and efficient.More</t>
   </si>
   <si>
+    <t>Kyle T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r494477943-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -455,6 +494,9 @@
     <t>I don’t have a lot of time but I want to warn anyone thinking of using this hotel.  Make it your LAST resort.  I mean if Motel 6 is full, maybe stay here.  If you can’t find a park bench.  The floors are filthy, sticky, in the room and hallways. The sofa in the room is so nasty I wouldn’t even place my luggage on it.  It’s old, stained with God only knows what, and the arms are threadbare.  There is a fruit fly infestation (killed two in the room to get a picture) in the room and the hallway.  The television doesn’t work as it will not power on.  Don’t try calling the front desk because the one telephone in the room is broken and the cord will not remain attached. Even holding it in place like you’d do in a third world hotel does not work.  Hey, I’m as thrifty as the next guy but this is just plain ridiculous.  I’ve stayed in Marriott hotels for more than 25 years but will never use this hotel again. They obviously do not exercise much oversight on the ‘franchise’ owners.  Should have used a Hilton property.More</t>
   </si>
   <si>
+    <t>pjchangchen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r491351322-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -473,6 +515,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Thomas M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r484803282-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -497,6 +542,9 @@
     <t>This is definitely the low-rung of Marriott's brand, but hey, it was about 30-percent cheaper than the next lowest in Plano when I stayed here for one night and wanted a break from overpriced "nap and a shower". If you compare it to the Marriott at Legacy, it was probably 70-percent cheaper. Is it functional? Absolutely. Nasty? No. Elegant? No. Safe? I thought so. It's right next to a Residence Inn and a much better price for pretty much the same thing. Breakfast was not as good. So for the $40 bucks you save, go splurge at I-Hop. Here is probably one place where I'd say you actually get a little more than you pay for. I had no complaints (and I'm picky!)More</t>
   </si>
   <si>
+    <t>BLtrvl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r473951334-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -521,6 +569,9 @@
     <t>Have stayed at other TPS locations, but this was pretty bad...room had a leaky/running toilet; a disconnected outlet that had a cover plate with exposed metal flanges next to a light switch, causing a couple of scrapes; security doors that were left wide open; a tiny fitness area; and a tiny breakfast area. Not recommended.More</t>
   </si>
   <si>
+    <t>Lacey B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r468420585-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -542,6 +593,9 @@
     <t>I stay in Plano often and I choose this hotel because it was close to my work and it offered a continental breakfast. My first impression came from the musty stained elevator. I was a bit wary. When I got to my room, the key card wouldn't work. After my second trip down, the irritated desk clerk walked upstairs with me to assist. My room was ok. Seemed pleasant enough. The round retro thermostat did show the age of the room. The air quality in the room wasn't good. I am currently suffering from a sinus infection due to it. The continental breakfast...well I've stayed at many hotels and usually there are some hot elements. Maybe eggs and sausage. Here? Nope. You get cereal, bread and frozen items you can nuke in the microwave. Overall it was a big disappointment. More</t>
   </si>
   <si>
+    <t>Bobans</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r462566442-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -569,6 +623,9 @@
     <t>Stayed few nights; unlike other critical reviews, our stay was pleasant. Situated in a quiet area with lots of parking. Room was tidy and clean, housekeeping was prompt. Comfortable bed, kitchenette with all appliances and internet was pretty good. Nothing great about the breakfast - similar to offerings from a typical two star hotel. Overall, good stay.More</t>
   </si>
   <si>
+    <t>LindsayBaines</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r452232791-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -596,6 +653,9 @@
     <t>This property is definitely not appropriate for the Marriott brand.  The lobby and exterior were typical, but the rooms were very outdated.  The furniture had stains on them and the carpet was old and ripped.  The room was clean, so I was not uncomfortable being in my room, but it is not what I have come to expect from Marriott.  My co-workers were equally (or a little more) displeased with the condition.  The staff was very friendly and accommodating.More</t>
   </si>
   <si>
+    <t>WrldFshr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r447022101-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -623,6 +683,9 @@
     <t>I've stayed at dozens of different hotels this year. While Towneplace Suites is not my favorite option, I have stayed at a few this year that were really nice. This place should lose the Townplace suites name! I wish Marriott would revoke the name privileges if a place has terrible management like this. I don't want to ever stay at a place like this again just because I happen to use Marriotts. So this place: -Smokers everywhere. Even employees smoking by the doors, letting smoke in. Disgusting. -Spots where carpet is missing from the floor. -No platinum level arrival snack/drink (no big deal really)-Potent natural gas smell in the hallway (Maybe I should have called city inspectors?)-First room had terrible smell. Not a moldy musky smell, but I can't describe it.-Second room in other building was not fresh by any means but I just dealt with it.-Opened up hand towel to find old blood stain (could be mud or poop or something, who knows)-Key cards stopped working for no reason.-Everything feels disgusting in this hotel. While there is nothing hot on the breakfast, it wasn't terrible either, so pretty neutral. I purposely didn't check out any amenities (such as pool) in this place because I didn't trust anything.More</t>
   </si>
   <si>
+    <t>LLCEC5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r437606664-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -650,6 +713,9 @@
     <t>We had to stay here due to tournament lodging. Normally i love Marriott hotels, but this was not a place i ever plan to stay at again. We had two bedrooms and a living room. But even that did not make up for the quality. It is very outdated. Couch is worn and dirty. I placed a towel on it and sat on the towel. I told the family to keep their socks on. One of our bedrooms was missing a TV.  With not wanting to sit on the couch in the living room, it was quite an inconvenience. Thank goodness we had our laptop. Breakfast is a continental breakfast. With this being an extended stay hotel, i would think it would've been a hot breakfast. Front desk guy in the evening was nice, he was probably the only reason i didn't give it one star. If our team ever book here again, i will go against the team and book elsewhere. I see someone from the hotel comes on and apologizes from the hotel on other reviews. To them, don't even bother....More</t>
   </si>
   <si>
+    <t>Harish A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r416412189-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -677,6 +743,9 @@
     <t>I stayed for a night and had a good night's sleep. The room is large and accommodating. There is a decent sized kitchenette with a full sized cooking range, all essentials including utensils and crockery. A coffee maker and microwave complete the picture. The bathroom was decently sized and had all the usual towels, soaps, etc. On the whole, I had an enjoyable stay. The 2 beers given to me, on the house, rounded off the welcoming reception when I checked in. I wish I could tip the gentleman who gave me the beers. More</t>
   </si>
   <si>
+    <t>Brad K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r411036060-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -701,6 +770,9 @@
     <t>I was at this hotel for 2 weeks with my family (including dog). The room condition was poor. Stove broken, Had to call maint. 3 time to get the shower drain to work, and it smelt like cat pee. But the only other hotel in town that would take a dog was booked up so we stuck it out.  That was just the first week. the second week it got real bad. The people above us started parting at about 1-4AM every night where it sounded like the celling was going to come down. I called front desk 4 times and nothing changed. Then the car brake-ins started. On day 2 of the break-ins my car gets the lock tore out of it 4 feet from my window. Good thing I woke up to scare the guy off because there is no security to help, even though this was the second day of this happening there.  Then the room floods....no, I'm not kidding. 1/4" of standing water in cat pee ridden carpet. The manager offers to downgrade my room size for same cost or to fix it immediately. Of course I say fix it immediately but 3 days later I am still standing in water with a smell so bad we only retuned to the hotel to sleep.  And yes. I purchase 3 Glade plugins that did not have a fighting chance on that smell.  So I go to see...I was at this hotel for 2 weeks with my family (including dog). The room condition was poor. Stove broken, Had to call maint. 3 time to get the shower drain to work, and it smelt like cat pee. But the only other hotel in town that would take a dog was booked up so we stuck it out.  That was just the first week. the second week it got real bad. The people above us started parting at about 1-4AM every night where it sounded like the celling was going to come down. I called front desk 4 times and nothing changed. Then the car brake-ins started. On day 2 of the break-ins my car gets the lock tore out of it 4 feet from my window. Good thing I woke up to scare the guy off because there is no security to help, even though this was the second day of this happening there.  Then the room floods....no, I'm not kidding. 1/4" of standing water in cat pee ridden carpet. The manager offers to downgrade my room size for same cost or to fix it immediately. Of course I say fix it immediately but 3 days later I am still standing in water with a smell so bad we only retuned to the hotel to sleep.  And yes. I purchase 3 Glade plugins that did not have a fighting chance on that smell.  So I go to see the AGM to fix this. "She is not her until 11PM" so I stay up and come back at 11:45PM and "She is not here yet". Excuse after excuse no GM or AGM or Owner will talk to me. I left 10 messages at the front desk now, 1 Marriott case opened and 2 emails. With the 1 reply to the Marriott case they offered me a few points.......or a refund for 1 night stay. I spent more time standing it stagnate water/cat pee in my room than that so I took no points or refund!   I decided to tell all of you instead!PS This was my first time I have ever complained about a Marriott room in over 10 years of traveling for work.More</t>
   </si>
   <si>
+    <t>Architect7400</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r407113555-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -728,6 +800,9 @@
     <t>Our room was FILLED with fleas. It was a flea infestation. They were EVERYWHERE! Absolutely disgusting. The place is also extremely dated. Worst hotel experience of my entire life. You couldn't pay me stay here again.More</t>
   </si>
   <si>
+    <t>Keisha C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r381368341-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -755,6 +830,9 @@
     <t>The staff was great; especially the operations manager. She really made me feel valued and important. The breakfast was sufficient and the room kept. I would definitely stay here again if visiting houston.More</t>
   </si>
   <si>
+    <t>Christine W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r379009052-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -782,6 +860,9 @@
     <t>I'm not sure of the male employees name that assisted us, but he was working the evening of 5/27 when we arrived around 11:30pm. He was very pleasant and helpful. The hotel was in an excellent location and tucked back on a semi-residential street with many trees. The professionalism was appreciated considering we arrived at the original hotel we booked around 11:15pm and was told they had been flooded recently and we were instead booked at TownePlace Suites. So glad we stayed! Everything was clean and the breakfast offered was plenty. Would stay again.More</t>
   </si>
   <si>
+    <t>DevilzAdvocate</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r376287684-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -809,6 +890,9 @@
     <t>Check-in was quick, friendly and they explained everything to you. Room was clean and room service was great. Wi-Fi worked well and all of the time I was there.Breakfast was simple(cereal, sausage, eggs, etc.) Super nice employees.More</t>
   </si>
   <si>
+    <t>PlatinumAtMultiple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r359829527-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -836,6 +920,9 @@
     <t>This location is starting to show its age.  You can tell they have repainted it, but even that new paint is starting to peel from the walls. Carpeting and furniture is old and the mattresses are still the low-end, but firm, mattresses you can get at any hotel.   Hallways are a little dark and all the common areas are really small. The bathroom vent in the room I was in was very loud. NOT IN THEIR CONTROL - traffic due to construction made it difficult to get in and out of the area the hotel is located. As others have said, they aren't really suites like the newer TownePlace locations, it is just a single room with a kitchen area included. Those are all the bad items.  Good items, this is set off the major roadways so it is quiet, the rooms, while dated, were clean and in decent condition. Staff was very kind and courteous. I would consider staying again, once the road construction is complete and it looks pretty close to it.More</t>
   </si>
   <si>
+    <t>Ishan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r357309379-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -863,6 +950,9 @@
     <t>This is one of the good Marriott property in Plano,TX , about 23-25 Miles from Dallas airport. It had fully equipped kitchen with all the utensils . Room was really clean.Hot Breakfast buffet was good. This is little old Marriott  property but maintained well.Lots of option for Food nearby the hotel.This is next to Residence Inn hotel.More</t>
   </si>
   <si>
+    <t>Viajesro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r357130075-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -881,6 +971,9 @@
     <t>We stayed here for 5 nights to visit family nearby. It was much smaller than expected - really not much bigger than a large hotel room. I had expected a suite to actually have a "bedroom" with a door, but it was more like a studio. The couch made out into a bed, but when out, it left no room to walk to the other side of the room/bed. The bed was not very comfortable either, and the walls were thin because we heard everyone's footsteps in the hall and the TV next door. The bathroom was small as well and didn't have any counter space. There wasn't a dresser to unpack clothes or even a suitcase stand, just a drawer in the TV stand and the nightstand drawers. The TV was big, but it was attached to the stand, so we had to turn the whole stand to watch TV in bed. Finally, the kitchen was barely equipped to cook in. It had a small 4 burner stove with oven, medium size refrigerator, microwave, toaster, and a dishwasher. But there were only 2 tiny knives, one large spoon, and one spatula, along with 3 inexpensive pots, a skillet, and a cookie sheet. The rest of the cooking utensils were a very used storage bowI set, a plastic multipurpose measuring cup, a colander, and a cutting board. I had to improvise a lot to cook twice a day, which was...We stayed here for 5 nights to visit family nearby. It was much smaller than expected - really not much bigger than a large hotel room. I had expected a suite to actually have a "bedroom" with a door, but it was more like a studio. The couch made out into a bed, but when out, it left no room to walk to the other side of the room/bed. The bed was not very comfortable either, and the walls were thin because we heard everyone's footsteps in the hall and the TV next door. The bathroom was small as well and didn't have any counter space. There wasn't a dresser to unpack clothes or even a suitcase stand, just a drawer in the TV stand and the nightstand drawers. The TV was big, but it was attached to the stand, so we had to turn the whole stand to watch TV in bed. Finally, the kitchen was barely equipped to cook in. It had a small 4 burner stove with oven, medium size refrigerator, microwave, toaster, and a dishwasher. But there were only 2 tiny knives, one large spoon, and one spatula, along with 3 inexpensive pots, a skillet, and a cookie sheet. The rest of the cooking utensils were a very used storage bowI set, a plastic multipurpose measuring cup, a colander, and a cutting board. I had to improvise a lot to cook twice a day, which was the reason for getting a room with a kitchenette in the first place. And the coffee maker was just a small 4 cup one!  We had to go buy a full size one the first day.  On the plus side, it was clean and the staff was very friendly. There is a laundry, but it costs $3.50 per load (because you have to run the dryer twice to get the clothes dry) and there are only 2 of each. There is a small exercise room with 2 treadmills, an elliptical, and some weights.  It was ok, but we won't stay there next time. More</t>
   </si>
   <si>
+    <t>Dwight M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r337065265-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -905,6 +998,9 @@
     <t>The location was a little hard to find. The bed was soft, and I'm used to a firm mattress. But a decent value. If you are in Plano for business it would be ok. I did not try the breakfast. The front desk guy was helpful.More</t>
   </si>
   <si>
+    <t>KearneyCat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r335657127-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -932,6 +1028,9 @@
     <t>Traveled to Plano with our Son's family and stayed here for a couple of days. The hotel has probably been around for a while but obviously has been recently remodeled. Rooms were clean, well decorated, and had a kitchenette. The hotel is planned for longer term guests like relocated employees. There is no ice machines on the floors due to refrigerators with ice trays. There was an ice machine in the office area but it was broke. An employee offered to go elsewhere to get ice which he did.More</t>
   </si>
   <si>
+    <t>Mary G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r330566435-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -959,6 +1058,9 @@
     <t>My family stayed at TownePlace Suites in Plano while we were having our home remodeled.  We were there for 17 nights.  It was an excellent experience.  The staff were always friendly and helpful.  One person really went above-and-beyond.  Robbie made my children Halloween plates with candy and fruit, since she knew we were away from home for trick or treat time.  She also would personally follow through on every fed ex delivery and helped me find some personal articles I accidentally left at the hotel.  The rooms were excellent for telecommuting--which is how I work.  It had a large desk and good internet.  Their pet friendly policy was also wonderful.  I will definitely stay here again if I ever have the need.More</t>
   </si>
   <si>
+    <t>SC_Dawg1996</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r327386119-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1086,9 @@
   </si>
   <si>
     <t>Friendly staff and spacious rooms coupled with breakfast included makes this a pretty good deal in Plano where it can be tough to find anything below $200/ night. The fitness area is pretty sad so if that's important, don't stay here. As for room selection, I agree with other reviewers that traffic on the 1st floor is significant so I would suggest 2nd or 3rd floor as far away from the elevator as possible. More</t>
+  </si>
+  <si>
+    <t>Sojournwithme</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r325585391-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
@@ -1014,6 +1119,9 @@
 My room had a kitchenette, desk, couch, ubiquitous TV and King size bed (I think). Nothing spectacular but certainly adequate, maybe more so with the kitchenette. Wi-Fi is complimentary but I had a terrible time trying to get connected. I spent most of the time without Wi-Fi b/c I didn't want to take...I returned to the TownePlace Suites after a year and half when I was in town for a conference. The best thing about TownePlace Suites is the staff. They go above and beyond to make guests feel welcome. I even received an item I needed to purchase. I inquired at the front desk about where to purchase a medicinal product and was told, "We can take care of that." When I returned to my room after dinner it was there waiting for me. The complimentary breakfast is certainly more than adequate: waffle press, hard boiled eggs, a variety of cold and instant hot cereals, yogurt, and breads. Not a stand out buffet but healthy options as well as typical continental stuff. The exercise room is minimalist to say the least. Dumbells up to 50#, a flat bench, and two treadmills. If you are serious about your training, this will disappoint but if you want to get in a few miles and do light weights then ok. It is a small room and if more than two people are working out I am sure it gets mighty crowded. My room had a kitchenette, desk, couch, ubiquitous TV and King size bed (I think). Nothing spectacular but certainly adequate, maybe more so with the kitchenette. Wi-Fi is complimentary but I had a terrible time trying to get connected. I spent most of the time without Wi-Fi b/c I didn't want to take the time to contact the help number provided by the front desk. I eventually got connected but it was my last night.The pool is little more than an enlarged postage stamp and there is no hot-tub. That is not meant as a criticism, just information.Having coffee and other hot beverages available as well as fresh fruit throughout the day was a nice touch. As were complimentary copies of USA Today and WSJ.I thought about staying somewhere else but am glad I returned. When I am back in town I am sure I will check in again.More</t>
   </si>
   <si>
+    <t>Rajbt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r300203418-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1146,9 @@
     <t>Spent two weeks here during a recent business trip. The hotel itself is located in a perfect area, close to all major highways, a 7-11 within walking distance, and literally hundreds of places to eat within a five mile radius. The room itself was comfortable. I was pleasantly surprised by the bed, it was firm with a think layer of memory foam. Extremely comfortable and caused no issues with my bad back. The kitchen was nice, really only used the fridge to keep drinks cool, but the kitchen was decent size for cooking as well. Shower pressure was perfect, as was lighting. Internet was decent and was able to get work done. TV was a generic LCD, but it did have HDMI input so I was able to connect the computer and enjoy Netflix. Parking is plentiful, and never had an issue with finding a spot close to my room. Staff and management were all friendly and helpful.  Absolutely no complaints from me with this property. Recommend to all!More</t>
   </si>
   <si>
+    <t>Sri Jagadish B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r270714732-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1167,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>shaheeza</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r270667130-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1077,6 +1191,9 @@
     <t>My husband and i, along with our one year old baby stayed for almost 33 nights in this hotel. Though the size of the room is quite small, but it was worth the penny we spent. Ample parking space provided.The bathroom is clean, sufficiently stocked with extra toilet rolls, toiletries etc. even have a bath tub. Quite a number of channels on the TV. Bed was comfy. Wifi has good coverage as well.Complimentary breakfast is also great to have. Not much choice, but no complains. Kitchen was also complete with utensil, cutleries and cooking essentials. Also, quite a number of halal eating place just few minutes drive away from this place. Definitely will come again if we are around the area.More</t>
   </si>
   <si>
+    <t>Tennswo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r270235696-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1104,6 +1221,9 @@
     <t>I stayed here because the Residence Inn was not available.  Quite a difference!  Worn furnishings and fixtures.  Not you usual Marroitt quality.  I also forgot a gold ring left on the computer center.  I realized I left it within ten minutes of my departure for the airport but did not have the time to return.  I was told it was not in the room.  Quite disappointing.More</t>
   </si>
   <si>
+    <t>PhDNana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r246118949-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1131,6 +1251,9 @@
     <t>Very quiet in a residential setting but very conveniently located (NW corner of Preston Rd and Springcreek Pkwy behind Residence Inn; less than 2 miles to Tollway). Staff very friendly.We stayed 1 full week in a 2BR suite. It was really great. While the breakfast choices are very limited (if you want a full breakfast, you will have to cook your own or go out to eat), I was happy to get decent OJ, wheat bread for toast, and chocolate milk :) My husband had waffles, cereal, toast, English muffins, etc. on different days. Yes, the seating area is very small but there is a full kitchen in a suite so why complain.I had no problems with Internet connection. There was plenty of hot water :) Beds were comfortable. 3 flat screen TVs in our suite.Yes, Marriott, it's time to remodel. While the lobby area has been remodeled, the suites have not been and it's time.More</t>
   </si>
   <si>
+    <t>Luke V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r245763430-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1155,6 +1278,9 @@
     <t>The hotel is in a great location. Room was clean up to date amenities and the bed slept great! It was nice to have the fridge and the microwave, this benefit is really nice if staying for than a few days. The staff was professional and even gave me a call to check to see if everything was alright. Overall it was a great stay.More</t>
   </si>
   <si>
+    <t>Michael C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r234421815-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1173,6 +1299,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Sriram1986</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r219947487-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1200,6 +1329,9 @@
     <t>I had stayed in TownePlace suites as part of my business trip for close to 16 days during June - July 2014. To summarize it in one word, the hotel is really good. A good breakfast (though the breakfast area is too small to sit and relax), excellent room with fully equipped kitchen, comfortable bed, good A/C, nice gym and swimming pool etc... There shuttle service to nearby places is also excellent. Really enjoyed the stay and is certainly value for money give Plano is a business hub.On the flip side, the internet connection was a bit slow at times. Still on an average it was good. Overall I would strongly recommend this hotel!More</t>
   </si>
   <si>
+    <t>Mark B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r213623254-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1218,6 +1350,9 @@
     <t>TownePlace is a value brand.  We received a great price for a two-BR suite.  Internet was fast, bathroom clean, kitchen adequately equipped. Beds are comfortable, AC powerful enough to keep the room cool in the Texas heat.  Workout facility has free weights and a couple of treadmills.  Nice touch that the front desk will provide free passes to a nearby LA Fitness center.  This TownePlace has friendly staff and care about the visitor.  Breakfast was fine (cold cereal, oatmeal, hard boiled eggs, waffles, breads, and fruit). Pool is outdoors, and was clean.  Location is convenient to Plano and Frisco (Stonebriar Mall, the Tollway, Plano corporate center, etc.)   Our routine (and thorough) bed bug check came up clean.  Pet friendly.  Not as "nice" as a Holiday Inn Express, but more economical and just as functional.More</t>
   </si>
   <si>
+    <t>jat2020</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r212386031-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1236,6 +1371,9 @@
     <t>Stayed here June 21st weekend for Jimmy Buffet concert. The hotel itself was very nice, with a nice staff, and comfortable room. The problem was the Breakfast area. There was a Boys Soccer and Basketball team staying at the hotel and the area where Breakfast is served was not big enough to accommodate all who wanted to eat. I'm surprised for the size of this hotel that the area wasn't built bigger. The Breakfast was just ok...cereal, yogurt, make-your-own waffles, bagels, etc. Our room was clean, and the beds were comfortable. I had to give it 4 stars just because of the Breakfast area. If you're staying here, I would plan on going out for Breakfast.More</t>
   </si>
   <si>
+    <t>Sheila M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r194866408-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1254,6 +1392,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Kim B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r180450434-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1272,6 +1413,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>WCup_dreaming</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r179239560-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +1434,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Susie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r165359892-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1455,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>ukpjs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r160100388-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1324,6 +1474,9 @@
   </si>
   <si>
     <t>April 2013</t>
+  </si>
+  <si>
+    <t>DallasBrian</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r160095606-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
@@ -1349,6 +1502,9 @@
 The only issue I had was the WiFi in the rooms.  While fully connected, the speed at night was not good at all.  I imagine the latency was due to heavy usage, the company that is contracted to provide Internet services might consider using a better Quality-Of-Service policy.  Again, the Internet...Relocating with a family of four, including a two-year old and 10-month old, we stayed for 25 days in a 2-bedroom suite.  With the full kitchen (Fridge, Oven, 4-burner Stove, Sink, and Dish Washer), this hotel helped our young family transition while waiting to move into our house.The hotel staff was very friendly which made the stay very welcoming.  The continental breakfast included a selection of fruits, cereals, yogurt, array of juice choices, make-your-own waffle, and hot coffee.  The breakfast room is quaint and can be crowded depending on what time you visit.Parking spaces were always available and had plenty of lighting.  Although there is a market place for snacks/drinks in the front lobby with not-so-friendly prices, there is a 7-11 convenient store behind the hotel on Preston Rd.The rooms were very clean and the beds were comfortable for the extended stay.  There was a 32 inch TV in each room with a nice amount of channels available.  The AC was a little loud, but not bad where I couldnt sleep - I am a very light sleeper and had no issue with the blackout curtains.The only issue I had was the WiFi in the rooms.  While fully connected, the speed at night was not good at all.  I imagine the latency was due to heavy usage, the company that is contracted to provide Internet services might consider using a better Quality-Of-Service policy.  Again, the Internet was fine in the mornings and during the day, but it was often difficult to open up a page at night.  I reported the issue to the front desk and they relayed the issue(s) to the 3rd-Party company.I would definitely stay there again and would recommend it to anyone traveling on extended stays needing a nice kitchen to prepare meals in the room.More</t>
   </si>
   <si>
+    <t>JKKB01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r154543955-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1365,6 +1521,9 @@
   </si>
   <si>
     <t>March 2013</t>
+  </si>
+  <si>
+    <t>STLfan420</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r154271036-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
@@ -1391,6 +1550,9 @@
 We got to the room and we had a studio, which came with a Queen bed, pull out sofa and a full kitchen. We ended up making dinner for us and the other family before the circus and there was plenty of room for the 3 kids and 3 adults. The only thing I didn't like was that they advertised that the windows opened up, but they only open up by a matter of 2 fingers. I wish we could of got some more air at night since it was really nice outside after it rained. If the windows open at...My wife and 4year old travel a bunch and this would be our first stay at a Towneplace Suites. I have to say it was really good.We can in town to visit the circus that was at the Dr.Pepper Arena on Saturday. We stayed here so we didn't have to drive all the back at 11pm, and it was a good meet up place for the other family we were going with.The check in was very easy. The person at the front desk asked me if I needed any directions any where, she showed me around the lobby, showed me where the elevators were and all mentioned all about the breakfast in the morning. She gave me 75% more info than many front desk people at high end hotels. The free Wifi was a plus as well.We got to the room and we had a studio, which came with a Queen bed, pull out sofa and a full kitchen. We ended up making dinner for us and the other family before the circus and there was plenty of room for the 3 kids and 3 adults. The only thing I didn't like was that they advertised that the windows opened up, but they only open up by a matter of 2 fingers. I wish we could of got some more air at night since it was really nice outside after it rained. If the windows open at a hotel, I try and open them to get fresh air and maybe do my part in saving energy. Everything in the kitchen worked, the bed was comfy, and the pull out sofa worked just fine for out 4year old. The free breakfast was really good. My son loved the Texas shaped waffles and whipped cream. My wife and I had some fruit and juice/coffee. It was a wonderful stay and if we ever need another night in Plano for any reason we will stay here again. It really was a great location for anything in Frisco, if those hotels are sold out for any reason.More</t>
   </si>
   <si>
+    <t>COLadyRoadWarrior</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r153396585-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1409,6 +1571,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Sandradenise714</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r151060143-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1424,6 +1589,9 @@
     <t xml:space="preserve">I ended up at this hotel because the original Marriott where I was supposed to have a room overbooked. I didn't even complain and they made it complementary. It was right next door and it was very clean. The manager was extremely welcoming and I was staying only one night, but they still gave me a tour of the whole place. I would definitley stay here again. </t>
   </si>
   <si>
+    <t>va_trailrunner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r147049207-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1445,6 +1613,9 @@
     <t>I stayed here while in the area for business in December 2012.  The staff is extremely friendly and helpful.  The location is good: off a main road in a quiet area.  The free breakfast is fine, but it is served in a small room that seemed to get full too quickly.  The exercise room also seems a bit undersized and was full when I visited.  The room was fine, but the fixtures and furniture were low end and could use a refreshing.  I had a lot of noise from people talking in the room next door.  My biggest complaint was the wireless internet, which was very slow to the point of being useless.  I got a strong and consistent signal, but I could not load web pages and finally gave up.More</t>
   </si>
   <si>
+    <t>Laura S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r143688955-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1464,6 +1635,9 @@
   </si>
   <si>
     <t>* Have to make a left turn over 6 lanes of traffic to get out of the hotel (If headed towards Frisco). There is no traffic light and it was stressful to get out everyday.* Stagnant water left in dishwasher and mildew in bottom corners upon arrival. I did not feel comfortable washing my dishes in this.* Barely any kitchen utensils* Running toilet* AC units not working properly (staff unfriendly and unhelpful with this)* Watched a staff member empty an outside ash tray full of water and butts onto the ground, next to the picnic tables where guests congregate.* Staff unconcerned about wet carpet from an overflowing toilet. The carpet was left uncleaned, resulting in the room smelling like sewage for a week+.* Couches in rooms need to be thrown away. They are disgusting.More</t>
+  </si>
+  <si>
+    <t>OpEd</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r130901138-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
@@ -1495,6 +1669,9 @@
 The staff was mostly hit and a couple of big misses. I thought the evening...It's located off of a busy road in the newer part of Plano, but feels very residential when you're at the hotel. If I was staying for a long (month+) stay, I could see how appealing this hotel would be. It's a pretty easy drive to get anywhere and there are lots of new outdoor mall and shopping / eating areas nearby. However, you definitely need a car because nothing is really in walking distance.The rooms are the typical TownePlace Suites with kitchenette, but the studios in this hotel are quite a bit bigger than I've encountered before.  While not brand new, they seemed to be well taken care of and everything functioned properly. The bathroom was on the small side, but not unreasonably so.The pool was small and only had 3 lounge chairs (not enough for the size of hotel) and could have used a good cleaning - lots of bugs and debris in it. The breakfast was your typical fare including the waffle maker, hard boiled eggs, and mostly pastries / cereal / yogurt - thanks for including Greek yogurt! There is a separate room for this and an attendant on hand if anything runs out.The parking lot was not huge, but we never had a problem finding somewhere to park. The wireless internet also worked well throughout our stay.The staff was mostly hit and a couple of big misses. I thought the evening and night staff were great, but the young lady on the weekends often looked confused and didn't seem empowered to answer any questions or solve problems. I also had a couple of small issues involving the maintenance guy and he was terribly rude.It's a pretty good choice for Plano or if you're working on a shorter contract in the area and need an extended stay choice that feels more apartment-like than hotel-like.More</t>
   </si>
   <si>
+    <t>CQ80Meters</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r129399663-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1516,6 +1693,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>deepu_pappa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r126036360-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1534,6 +1714,9 @@
     <t>I am happy with my stay here but just the staff are incapable to provide proper internet service during my stay. When I have extended my stay in Suites initially, they should have informed the internet provider know about it. But everytime the internet used to DROP and no wireless service at all. When I would call the reception, they would connect me to service provider and to get the wireless work at my suite, I should be on hold for hours in a day and wouldn't get internet at all. They would say ''you will get a call back, but no call''.I should cal and ask the reception to send some dishwasher powder,creamer for coffee and soaps. Once asked wasn't getting it untill the next day when someone would come to clean the room. The reply from the reception to the above information will be - there is no staff, so can you come down and pick the things. I am happy with my stay there but just the few services weren't good there at this stay.More</t>
   </si>
   <si>
+    <t>txcarguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r116748346-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1552,6 +1735,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>JulianM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r115908825-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1573,6 +1759,9 @@
     <t>I stayed at the TownePlace Suites Dallas Plano on business for around 10 days. The hotel is very well located, close to The Shops at Legacy and Stonebriar Mall. Service is good and the beds are very comfortable. They also have a kitchenette, but I did not use it. Breakfast is included, but is very basic and you have to use foam plates. There is a very basic gym, good for cardio, not so much for weights. They also have a PC/printer in the lobby, but I wouldn't call it a business center.Internet is not wireless and you cannot watch TV from your bed, you have to sit on a sofa.If you're looking for a clean hotel at a good price, this is a very solid option. Don't expect luxuries.More</t>
   </si>
   <si>
+    <t>venkatjs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r114709736-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1594,6 +1783,9 @@
     <t>As we were relocating to Plano TX, we had the opportunity  to stay at the TownePlace suites . It was really a home away from home for our extended stay!!  The 19 days were spent in comfort. The place is calm and does not look like a hotel.  The suites were spacious, spick and span. There is plenty of space to walk and jog around with no traffic hassle.The ever smiling and greeting front desk staff and the maintenance crew are to be complimented,who do an excellent job . The suites have a kitchen with all necessities making daily cooking comfortable.  A rice cooker could add to the requirement. Both the rooms and the hall are provided with a 32" HD Television adding to the comfort to watch the choice of each inmate. Though the shopping malls are around a vehicle to reach them is a must. The hotel which was providing free shuttle service to reach these places with drew it citing "great demand" for it and restricted the service to business purpose only. This decision needs to be reconsidered by the authorities, who are always eager to meet the requirements of the guests, since persons relocating would not have their cars delivered.  A small swimming pool meets the inmates need to relax. The complimentary vegetarian break fast and the fruits help you make a good beginning of the day. This is a place I would love to recommend...As we were relocating to Plano TX, we had the opportunity  to stay at the TownePlace suites . It was really a home away from home for our extended stay!!  The 19 days were spent in comfort. The place is calm and does not look like a hotel.  The suites were spacious, spick and span. There is plenty of space to walk and jog around with no traffic hassle.The ever smiling and greeting front desk staff and the maintenance crew are to be complimented,who do an excellent job . The suites have a kitchen with all necessities making daily cooking comfortable.  A rice cooker could add to the requirement. Both the rooms and the hall are provided with a 32" HD Television adding to the comfort to watch the choice of each inmate. Though the shopping malls are around a vehicle to reach them is a must. The hotel which was providing free shuttle service to reach these places with drew it citing "great demand" for it and restricted the service to business purpose only. This decision needs to be reconsidered by the authorities, who are always eager to meet the requirements of the guests, since persons relocating would not have their cars delivered.  A small swimming pool meets the inmates need to relax. The complimentary vegetarian break fast and the fruits help you make a good beginning of the day. This is a place I would love to recommend to every one as it has good pricing policy for longer stay as well.More</t>
   </si>
   <si>
+    <t>gsellers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r94245988-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1612,6 +1804,9 @@
     <t>January 2011</t>
   </si>
   <si>
+    <t>RachitM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r83854248-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1633,6 +1828,9 @@
     <t>I stayed at TownePlace Suites during an official visit in Sept10. I found the place really nice. The staff is really friendly and the rooms are nice spacious &amp; with kitchen. The hotel provides complimentory internet services and also provide free shuttle service upto 5 mile radius except on weekends.I would recommend this place to all the visiotrs who are looking for an extended stay and want to make sure that they are able to cook their own food. Although it also has some nice eating joints nearby. And the suttle service is even free utp Stonebriar mall, walmart, best buy etc. The only sad thing was that I could not find any nice clubs nearby, but that could be probably because I didnt search much.More</t>
   </si>
   <si>
+    <t>TravelTipsKrishna</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r62649805-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1654,6 +1852,9 @@
     <t>My experience : I liked this place as it was in a very calm locality and well maintained. This does not look like a regular hotel and best suited for long stays. it gave me more of a home away from home feeling...Dos: Try and get the best bargain for the rooms on internet. They have special deals for long stays(more than 28 days). Ask for the shuttle service to go anywhere within a radius of 7 miles from the hotel. This helps to save on taxi bills. Donts : There are very few convenio shops or malls nearby. So, you need to rely on taxis or shuttle service for daily shopping. Best Value : This has a attached kitchenette making it convenient for daily cooking. The maids are freindly and do a through job of cleaning up the mess! the hotel offers free internet. the rooms were big enough for a family of 3 (or4).More</t>
   </si>
   <si>
+    <t>gnsinhere</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r50596359-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1672,6 +1873,9 @@
     <t>December 2009</t>
   </si>
   <si>
+    <t>hollymomoftwo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r47102241-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1693,6 +1897,9 @@
     <t>I'm sitting in this hotel as we speak and it's incredible!  We're in the two bedroom suite and I have a refrigerator, oven, stove, dishwasher, toaster, microwave, coffee maker, iced tea, coffee, pots, pans, all the things I need to cook and enjoy the kitchen.  The bathroom is seperate, the bedrooms are seperate, there is a dining room table.  It's a corner unit so there are windows in each room.  I am just amazed by this hotel.  The front desk was SO nice too and allowed me to check in early so my son could take a nap.  I just LOVE this place!  I will be back and I encourage anyone to stay here!  It's AWESOME!More</t>
   </si>
   <si>
+    <t>kmoh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r22455809-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1711,6 +1918,9 @@
     <t>December 2008</t>
   </si>
   <si>
+    <t>HudsonValleyGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r17091483-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1729,6 +1939,9 @@
     <t>Decent place.  Good location/   I always seemed to have to ask for things...  a 2nd soap (only had 1 when I checked in), more salt &amp; dishwasher tabs for kitchen...  more coffee after a couple of days.. seemed like they just cleaned (which was done OK, not great).  I dropped a magazine on the floor under the table, and I noticed iot still there after 3 days.....  Friendly office staff, but annoyed when after a market trip at the emd of a work day, neither of my card keys worked.   I was told, that it expired after 7 days....  WHY??  I was checked in for 2 weeks.  The room also had some plastic looking stain on the carpet and smelled a bit off, like old smoke just upon entering, but I didn;t notice after I was inside.Bed was clean and comfortable, bathroom clean with a decent showerAfter all this, you may ask, why 3 stars??   I have seen allot lately, and it's really a 2.5.. but I was told they are about to start renovations, building by building, so they are trying.More</t>
   </si>
   <si>
+    <t>shoncb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r16675494-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1750,6 +1963,9 @@
     <t>I stayed two nights. I could litterally hear every single thing my neighbor said--clearly. In other hotels I have stayed in, you might sometimes hear a muffled voices through the walls. But, I heard the neighbors clear as day. It was like they were in the same room I was.  They also stayed up all night talking, which made it more unpleasant since they were up when I was trying to sleep.Other than that, everything was great! It was clean, the front-desk staff were exceptionally nice and the area is safe. The complimentary breakfast is really just a room full of cheap eats. They have a waffle maker, cold cereal, the juice machine, bread/toast, and that's about it.More</t>
   </si>
   <si>
+    <t>kdhampton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r14240719-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1771,6 +1987,9 @@
     <t>Well, the TownePlace Suites in Plano is almost like our home away from home.  We usually stay here or at the Residence Inn which is right next door , when we come to the Dallas/Plano area.  We love the area.  We like to walk and the area around this property is very nice.  We feel very comfortable walking in this area.However - the property is becoming run down.  The bathroom, though clean, is looking worn.  The floor was stained. We have no complaints about the overall cleanliness of the room.  It is nice having a frig &amp; microwave.  We don't usually cook when we're there but the stove was clean but worn.  The dishwasher rack was caddywompus when we loaded our dirty glasses so my husband had to really work with it to get it back in.  My biggest complaint was that it was so WARM.  I never could get the room to cool down.  It's March for goodness sake! Too warm even with the AC on and fan running continuously.  This was my complaint the last time we were here in June of 2007.  We didn't eat breakfast there.  By the time we got down, there wasn't much left to choose from and it was VERY crowded.The biggest plus is the people.  All the employees are so friendly, helpful and nice.More</t>
   </si>
   <si>
+    <t>World_Hiker_Dallas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r5414297-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1790,6 +2009,9 @@
   </si>
   <si>
     <t>We stayed at the TownePlace on July 1st and were quite disappointed having traveled around the country.    The outside is very attractive, but appearances can be deceiving.   The hall smelled like 10 styles of food as each room has a kitchen (it stunk).  Our room was not that clean -- stains on the carpet, floor, etc. and the towels were very cheap.  Our neighbor upstairs smoked and the smoke engulfed our room.  We heard his/her footsteps all night.   We understand they stay quite busy during the week but not so busy on the weekend.   The A/C works great....the high speed internet is not very fast -- unlike the new Hamptons, HI Express that we have stayed at -- they charge you for a faster high speed -- a rip-off.   Overall we would not recommend this hotel.  As I type this I can still hear the man pacing upstairs -- it is giving me a headache!More</t>
+  </si>
+  <si>
+    <t>UKSilverTripper</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r5182001-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
@@ -1818,6 +2040,9 @@
 The...I spent 8 nights here in early May and can say that for the price it is great value for money. A bit more detail….. To start with you may need a good map to find this hotel. It is tucked away behind its big brother, the Residence Inn, off Preston. Look out for the 7/11.The check-in was painless and quick, great considering I had just arrived at the hotel after a 12 hour flight from the UK. The room (1 bed studio suite) was spacious, bright, airy and spotlessly clean. It had everything you need for your stay, including sofa, easy chair, table and chairs etc and a fully equipped kitchen including cooker, dishwasher, microwave but no kettle or teapot. There was plenty of drawer and closet space. The bed was very comfortable with fresh crisp linen and extra pillows. The maid service was excellent. Every day when I came back to the room it was just as it was the day I first arrived. The breakfast room could be very busy first thing with business people grabbing a bite to eat before work but after this there was plenty of space. There was a plentiful supply and quite a good choice of food but, just as I felt a few different items would be welcome, there were new dishes on Tuesdays and Thursday. The room was well managed and all areas were kept clean and tidy.The pool area seems cramped at first but as this is not a resort area there were only a few people using this facility. There is a laundry and fitness room both are adequate and all the equipment seemed in good order. Front desk staff were very friendly and helpful throughout. All of my varied requests for directions etc. were answered eagerly and politely. All information provided was accurate. The reception area, although quite small, has fresh tea/coffee available, newspapers and magazines, a big television and best of all a free high speed Internet connected PC with printer. Main drawback - There are no restaurants within easy walking distance, but this is Texas and nobody walks.I would have no hesitation about going back.More</t>
   </si>
   <si>
+    <t>ChantalvanderEnde</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r4823856-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1842,6 +2067,9 @@
 There were a few details I wasn't too pleased with: the AC in the bathroom and the fridge make a lot of noise (solved by turning off the bathroom light and unplugging the fridge) and the breakfast was fairly simple. 
 I have not used any of the appliances since I was only staying for a couple of nights, but I would if I had stayed longer, and having a kitchen, a dining table and a couch do add to that cosy feeling.
 I'm not used to hotels NOT charging seperately for breakfast, parking and internet, so combined with the  level of service, cleanliness...I have just returned from a 5-night stay at this hotel and must say I'm pleased. The location was perfect for me: close to everywhere I wanted to go, but still 'remote' enough to be quiet and feel safe, which is what I like when traveling alone. I think it's also kinda cute-looking from the outside, which gives you a certain cosy feeling. Unfortunately I didn't sleep well the third night, because a hockey team AND a wedding party had arrived. When I reluctantly went to the front desk and told the manager the next morning (I'm not too good at complaining), she gave me a hug, arranged for me to have another room in the other building and did not charge this night. I have never before had this kind of service and am very impressed. There were a few details I wasn't too pleased with: the AC in the bathroom and the fridge make a lot of noise (solved by turning off the bathroom light and unplugging the fridge) and the breakfast was fairly simple. I have not used any of the appliances since I was only staying for a couple of nights, but I would if I had stayed longer, and having a kitchen, a dining table and a couch do add to that cosy feeling.I'm not used to hotels NOT charging seperately for breakfast, parking and internet, so combined with the  level of service, cleanliness and friendliness I think the value for money is great. Together with some great memories that were created during this trip and even in this room :-), the hotel made my stay very nice and should I be given the opportunity to return, I will book this hotel again straight away.More</t>
+  </si>
+  <si>
+    <t>Orlandodevotee</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d223853-r3754699-TownePlace_Suites_Dallas_Plano-Plano_Texas.html</t>
@@ -2364,43 +2592,47 @@
       <c r="A2" t="n">
         <v>38549</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>180230</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2420,50 +2652,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38549</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>180231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2483,50 +2719,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38549</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>111759</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2540,50 +2780,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38549</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>180232</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2595,56 +2839,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38549</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>180233</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2656,56 +2904,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38549</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>19397</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -2721,56 +2973,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38549</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>6540</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -2788,56 +3044,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38549</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>7018</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>103</v>
       </c>
-      <c r="L9" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>96</v>
-      </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2853,56 +3113,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="X9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38549</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>180234</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2922,50 +3186,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38549</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>93774</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2979,50 +3247,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38549</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>655</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3036,50 +3308,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38549</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>180235</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>142</v>
+      </c>
+      <c r="O13" t="s">
         <v>128</v>
-      </c>
-      <c r="L13" t="s">
-        <v>129</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>130</v>
-      </c>
-      <c r="O13" t="s">
-        <v>118</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3097,50 +3373,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>38549</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>108700</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3158,56 +3438,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>38549</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>180236</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="O15" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3225,50 +3509,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>38549</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>5371</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3288,50 +3576,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>38549</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>180237</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3347,56 +3639,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="X17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>38549</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>50707</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3410,50 +3706,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>38549</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>180238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3469,56 +3769,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="X19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>38549</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>34690</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3536,56 +3840,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="X20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>38549</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>180239</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3603,56 +3911,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="X21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>38549</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>19524</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3670,56 +3982,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="X22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="Y22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>38549</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>180240</v>
+      </c>
+      <c r="C23" t="s">
+        <v>227</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3731,56 +4047,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="X23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="Y23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>38549</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>51690</v>
+      </c>
+      <c r="C24" t="s">
+        <v>237</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="J24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="O24" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -3796,56 +4116,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="X24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="Y24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>38549</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>180241</v>
+      </c>
+      <c r="C25" t="s">
+        <v>246</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="J25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="K25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3861,56 +4185,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="X25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="Y25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>38549</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>180242</v>
+      </c>
+      <c r="C26" t="s">
+        <v>256</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="J26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="K26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="O26" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3922,56 +4250,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="X26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="Y26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>38549</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>10846</v>
+      </c>
+      <c r="C27" t="s">
+        <v>266</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="J27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="K27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="O27" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3989,56 +4321,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="X27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="Y27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>38549</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>180243</v>
+      </c>
+      <c r="C28" t="s">
+        <v>276</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="K28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4056,56 +4392,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="X28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="Y28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>38549</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>180244</v>
+      </c>
+      <c r="C29" t="s">
+        <v>286</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="J29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="K29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="L29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4121,56 +4461,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="X29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="Y29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>38549</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>180245</v>
+      </c>
+      <c r="C30" t="s">
+        <v>296</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="J30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="K30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="O30" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4186,56 +4530,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="X30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="Y30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>38549</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>180246</v>
+      </c>
+      <c r="C31" t="s">
+        <v>306</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="J31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="K31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="L31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="O31" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4247,56 +4595,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="X31" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="Y31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>38549</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>7488</v>
+      </c>
+      <c r="C32" t="s">
+        <v>313</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="J32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="K32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="L32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="O32" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4308,56 +4660,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="X32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="Y32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>38549</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>180247</v>
+      </c>
+      <c r="C33" t="s">
+        <v>322</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="J33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="K33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="L33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="O33" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4369,56 +4725,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="X33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="Y33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>38549</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>15017</v>
+      </c>
+      <c r="C34" t="s">
+        <v>332</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="J34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="K34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="L34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="O34" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4434,56 +4794,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="X34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="Y34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>38549</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>180248</v>
+      </c>
+      <c r="C35" t="s">
+        <v>342</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="J35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="K35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="L35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4495,56 +4859,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="X35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="Y35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38549</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>180249</v>
+      </c>
+      <c r="C36" t="s">
+        <v>352</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="J36" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="K36" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="L36" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4562,56 +4930,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="X36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="Y36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>38549</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>180250</v>
+      </c>
+      <c r="C37" t="s">
+        <v>361</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="J37" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="K37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="L37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4623,56 +4995,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="X37" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="Y37" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>38549</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>180251</v>
+      </c>
+      <c r="C38" t="s">
+        <v>370</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="J38" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="K38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="L38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4692,50 +5068,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38549</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>180252</v>
+      </c>
+      <c r="C39" t="s">
+        <v>377</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="J39" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="K39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="L39" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4755,50 +5135,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38549</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>180253</v>
+      </c>
+      <c r="C40" t="s">
+        <v>385</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="J40" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="K40" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="L40" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4810,56 +5194,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="X40" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="Y40" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38549</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>48468</v>
+      </c>
+      <c r="C41" t="s">
+        <v>395</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="J41" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="K41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="L41" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="O41" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4877,56 +5265,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="X41" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="Y41" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>38549</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>180254</v>
+      </c>
+      <c r="C42" t="s">
+        <v>405</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="J42" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="K42" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="L42" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="O42" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4944,56 +5336,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="X42" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="Y42" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38549</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>228</v>
+      </c>
+      <c r="C43" t="s">
+        <v>414</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="J43" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="K43" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="L43" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="O43" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5013,50 +5409,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>38549</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>180255</v>
+      </c>
+      <c r="C44" t="s">
+        <v>421</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="J44" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="K44" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="L44" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5074,56 +5474,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="X44" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="Y44" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>38549</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>2433</v>
+      </c>
+      <c r="C45" t="s">
+        <v>431</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="J45" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="K45" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="L45" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="O45" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5147,50 +5551,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>38549</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>180256</v>
+      </c>
+      <c r="C46" t="s">
+        <v>438</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="J46" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="K46" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="L46" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="O46" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5214,50 +5622,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>38549</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>7481</v>
+      </c>
+      <c r="C47" t="s">
+        <v>445</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="J47" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="K47" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="L47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5271,50 +5683,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>38549</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>5624</v>
+      </c>
+      <c r="C48" t="s">
+        <v>452</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="J48" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="K48" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="L48" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="O48" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5338,50 +5754,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>38549</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>180257</v>
+      </c>
+      <c r="C49" t="s">
+        <v>459</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="J49" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="K49" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="L49" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5405,50 +5825,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>38549</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>180258</v>
+      </c>
+      <c r="C50" t="s">
+        <v>466</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="J50" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="K50" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="L50" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="O50" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5472,50 +5896,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>38549</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>180259</v>
+      </c>
+      <c r="C51" t="s">
+        <v>473</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="J51" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="K51" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="L51" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5529,50 +5957,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>38549</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>180260</v>
+      </c>
+      <c r="C52" t="s">
+        <v>480</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="J52" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="K52" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="L52" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="O52" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5596,50 +6028,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>38549</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>180261</v>
+      </c>
+      <c r="C53" t="s">
+        <v>486</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="J53" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="K53" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="L53" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="O53" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5663,50 +6099,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>38549</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>180262</v>
+      </c>
+      <c r="C54" t="s">
+        <v>493</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="J54" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="K54" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="L54" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="O54" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5730,50 +6170,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>38549</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>180263</v>
+      </c>
+      <c r="C55" t="s">
+        <v>500</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="J55" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="K55" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="L55" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5797,41 +6241,45 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>38549</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>180264</v>
+      </c>
+      <c r="C56" t="s">
+        <v>507</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="J56" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="K56" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="L56" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
@@ -5860,50 +6308,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>38549</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>180265</v>
+      </c>
+      <c r="C57" t="s">
+        <v>513</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>458</v>
+        <v>514</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="J57" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="K57" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="L57" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5927,50 +6379,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>38549</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>12822</v>
+      </c>
+      <c r="C58" t="s">
+        <v>521</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="J58" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="K58" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="L58" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5986,50 +6442,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>38549</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>180266</v>
+      </c>
+      <c r="C59" t="s">
+        <v>529</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="J59" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="K59" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="L59" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6043,50 +6503,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>38549</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>180267</v>
+      </c>
+      <c r="C60" t="s">
+        <v>537</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="J60" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="K60" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="L60" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="O60" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6110,50 +6574,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>38549</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>180268</v>
+      </c>
+      <c r="C61" t="s">
+        <v>545</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="J61" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="K61" t="s">
         <v>39</v>
       </c>
       <c r="L61" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="O61" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6177,50 +6645,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>38549</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>180269</v>
+      </c>
+      <c r="C62" t="s">
+        <v>552</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>492</v>
+        <v>553</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
       <c r="J62" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="K62" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="L62" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="O62" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6240,50 +6712,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>38549</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>180270</v>
+      </c>
+      <c r="C63" t="s">
+        <v>559</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>498</v>
+        <v>560</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>499</v>
+        <v>561</v>
       </c>
       <c r="J63" t="s">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="K63" t="s">
-        <v>501</v>
+        <v>563</v>
       </c>
       <c r="L63" t="s">
-        <v>502</v>
+        <v>564</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>503</v>
+        <v>565</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6303,50 +6779,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>504</v>
+        <v>566</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>38549</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>180271</v>
+      </c>
+      <c r="C64" t="s">
+        <v>567</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="J64" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="K64" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="L64" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="O64" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6366,50 +6846,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>38549</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>180272</v>
+      </c>
+      <c r="C65" t="s">
+        <v>575</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>513</v>
+        <v>577</v>
       </c>
       <c r="J65" t="s">
-        <v>514</v>
+        <v>578</v>
       </c>
       <c r="K65" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="L65" t="s">
-        <v>516</v>
+        <v>580</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>517</v>
+        <v>581</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6433,50 +6917,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>516</v>
+        <v>580</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>38549</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>180273</v>
+      </c>
+      <c r="C66" t="s">
+        <v>582</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>519</v>
+        <v>584</v>
       </c>
       <c r="J66" t="s">
-        <v>520</v>
+        <v>585</v>
       </c>
       <c r="K66" t="s">
-        <v>521</v>
+        <v>586</v>
       </c>
       <c r="L66" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>523</v>
+        <v>588</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6500,50 +6988,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>38549</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>180274</v>
+      </c>
+      <c r="C67" t="s">
+        <v>590</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="J67" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="K67" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="L67" t="s">
-        <v>529</v>
+        <v>595</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>530</v>
+        <v>596</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6567,50 +7059,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>531</v>
+        <v>597</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>38549</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>180275</v>
+      </c>
+      <c r="C68" t="s">
+        <v>598</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>532</v>
+        <v>599</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="J68" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="K68" t="s">
-        <v>535</v>
+        <v>602</v>
       </c>
       <c r="L68" t="s">
-        <v>536</v>
+        <v>603</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>537</v>
+        <v>604</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6634,50 +7130,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>536</v>
+        <v>603</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>38549</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>180276</v>
+      </c>
+      <c r="C69" t="s">
+        <v>605</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="J69" t="s">
-        <v>540</v>
+        <v>608</v>
       </c>
       <c r="K69" t="s">
-        <v>541</v>
+        <v>609</v>
       </c>
       <c r="L69" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="O69" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6701,50 +7201,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>544</v>
+        <v>612</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>38549</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>180277</v>
+      </c>
+      <c r="C70" t="s">
+        <v>613</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>545</v>
+        <v>614</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="J70" t="s">
-        <v>547</v>
+        <v>616</v>
       </c>
       <c r="K70" t="s">
-        <v>548</v>
+        <v>617</v>
       </c>
       <c r="L70" t="s">
-        <v>549</v>
+        <v>618</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6768,41 +7272,45 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>549</v>
+        <v>618</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>38549</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>44743</v>
+      </c>
+      <c r="C71" t="s">
+        <v>620</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>551</v>
+        <v>621</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>552</v>
+        <v>622</v>
       </c>
       <c r="J71" t="s">
-        <v>553</v>
+        <v>623</v>
       </c>
       <c r="K71" t="s">
-        <v>554</v>
+        <v>624</v>
       </c>
       <c r="L71" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
@@ -6831,50 +7339,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>556</v>
+        <v>626</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>38549</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>180278</v>
+      </c>
+      <c r="C72" t="s">
+        <v>627</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>557</v>
+        <v>628</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>558</v>
+        <v>629</v>
       </c>
       <c r="J72" t="s">
-        <v>559</v>
+        <v>630</v>
       </c>
       <c r="K72" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
       <c r="L72" t="s">
-        <v>561</v>
+        <v>632</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>562</v>
+        <v>633</v>
       </c>
       <c r="O72" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -6898,50 +7410,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>38549</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>180279</v>
+      </c>
+      <c r="C73" t="s">
+        <v>635</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>564</v>
+        <v>636</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>565</v>
+        <v>637</v>
       </c>
       <c r="J73" t="s">
-        <v>566</v>
+        <v>638</v>
       </c>
       <c r="K73" t="s">
-        <v>567</v>
+        <v>639</v>
       </c>
       <c r="L73" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>569</v>
+        <v>641</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>2</v>
@@ -6965,50 +7481,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>570</v>
+        <v>642</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>38549</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>79556</v>
+      </c>
+      <c r="C74" t="s">
+        <v>643</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>572</v>
+        <v>645</v>
       </c>
       <c r="J74" t="s">
-        <v>573</v>
+        <v>646</v>
       </c>
       <c r="K74" t="s">
-        <v>574</v>
+        <v>647</v>
       </c>
       <c r="L74" t="s">
-        <v>575</v>
+        <v>648</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>576</v>
+        <v>649</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>2</v>
@@ -7030,41 +7550,45 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>577</v>
+        <v>650</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>38549</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>180280</v>
+      </c>
+      <c r="C75" t="s">
+        <v>651</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>578</v>
+        <v>652</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>579</v>
+        <v>653</v>
       </c>
       <c r="J75" t="s">
-        <v>580</v>
+        <v>654</v>
       </c>
       <c r="K75" t="s">
-        <v>581</v>
+        <v>655</v>
       </c>
       <c r="L75" t="s">
-        <v>582</v>
+        <v>656</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
@@ -7091,41 +7615,45 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>583</v>
+        <v>657</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>38549</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>180281</v>
+      </c>
+      <c r="C76" t="s">
+        <v>658</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="J76" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="K76" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="L76" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
@@ -7152,41 +7680,45 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>38549</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>180282</v>
+      </c>
+      <c r="C77" t="s">
+        <v>665</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>590</v>
+        <v>666</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>591</v>
+        <v>667</v>
       </c>
       <c r="J77" t="s">
-        <v>592</v>
+        <v>668</v>
       </c>
       <c r="K77" t="s">
-        <v>593</v>
+        <v>669</v>
       </c>
       <c r="L77" t="s">
-        <v>594</v>
+        <v>670</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
@@ -7213,7 +7745,7 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>595</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
